--- a/doc/cafeteria/cafeteria táblázat.xlsx
+++ b/doc/cafeteria/cafeteria táblázat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="765" yWindow="165" windowWidth="15480" windowHeight="8640"/>
+    <workbookView xWindow="1695" yWindow="165" windowWidth="15480" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="cafeteria" sheetId="1" r:id="rId1"/>
@@ -1101,9 +1101,6 @@
     <t>Önkéntes 1</t>
   </si>
   <si>
-    <t>bérlet 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">SZÉP szállás 1 </t>
   </si>
   <si>
@@ -1141,9 +1138,6 @@
   </si>
   <si>
     <t>SZÉP-szabadidő3</t>
-  </si>
-  <si>
-    <t>Erzsébet utalvány 4</t>
   </si>
   <si>
     <t>Önkéntes nyugdíj pénztár 4</t>
@@ -1944,12 +1938,6 @@
     <t>Kozma Roland</t>
   </si>
   <si>
-    <t>kultúra utalvány1</t>
-  </si>
-  <si>
-    <t>sport utalvány1</t>
-  </si>
-  <si>
     <t>Erzsébet utalvány1</t>
   </si>
   <si>
@@ -2170,6 +2158,18 @@
   </si>
   <si>
     <t>Simon Csilla</t>
+  </si>
+  <si>
+    <t>Erzsébet utalvány4</t>
+  </si>
+  <si>
+    <t>Bérlet 1</t>
+  </si>
+  <si>
+    <t>Kultúra utalvány1</t>
+  </si>
+  <si>
+    <t>Sport utalvány1</t>
   </si>
 </sst>
 </file>
@@ -12669,10 +12669,10 @@
     <tableColumn id="6" name="terület" dataDxfId="214" totalsRowDxfId="104"/>
     <tableColumn id="7" name="Melyik cég" dataDxfId="213" totalsRowDxfId="103"/>
     <tableColumn id="8" name="Erzsébet utalvány1" dataDxfId="212" totalsRowDxfId="102"/>
-    <tableColumn id="85" name="bérlet 1" dataDxfId="211" totalsRowDxfId="101"/>
+    <tableColumn id="85" name="Bérlet 1" dataDxfId="211" totalsRowDxfId="101"/>
     <tableColumn id="9" name="Önkéntes 1" dataDxfId="210" totalsRowDxfId="100"/>
-    <tableColumn id="10" name="kultúra utalvány1" dataDxfId="209" totalsRowDxfId="99"/>
-    <tableColumn id="86" name="sport utalvány1"/>
+    <tableColumn id="10" name="Kultúra utalvány1" dataDxfId="209" totalsRowDxfId="99"/>
+    <tableColumn id="86" name="Sport utalvány1"/>
     <tableColumn id="11" name="SZÉP szállás 1 " dataDxfId="208" totalsRowDxfId="98"/>
     <tableColumn id="12" name="SZÉP vendéglátás 1" dataDxfId="207" totalsRowDxfId="97"/>
     <tableColumn id="13" name="SZÉP szabadidő 1" dataDxfId="206" totalsRowDxfId="96"/>
@@ -12692,7 +12692,7 @@
     <tableColumn id="23" name="SZÉP-szálláshely3" dataDxfId="192" totalsRowDxfId="82"/>
     <tableColumn id="24" name="SZÉP-vendéglátás 3" dataDxfId="191" totalsRowDxfId="81"/>
     <tableColumn id="25" name="SZÉP-szabadidő3" dataDxfId="190" totalsRowDxfId="80"/>
-    <tableColumn id="26" name="Erzsébet utalvány 4" dataDxfId="189" totalsRowDxfId="79"/>
+    <tableColumn id="26" name="Erzsébet utalvány4" dataDxfId="189" totalsRowDxfId="79"/>
     <tableColumn id="91" name="bérlet4" dataDxfId="188" totalsRowDxfId="78"/>
     <tableColumn id="27" name="Önkéntes nyugdíj pénztár 4" dataDxfId="187" totalsRowDxfId="77"/>
     <tableColumn id="28" name="kultúra4" dataDxfId="186" totalsRowDxfId="76"/>
@@ -13076,9 +13076,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DG228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="7" topLeftCell="DA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13173,7 +13173,7 @@
   <sheetData>
     <row r="1" spans="1:111" s="15" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="492" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="14" t="s">
@@ -13187,7 +13187,7 @@
       <c r="I1" s="328"/>
       <c r="J1" s="391"/>
       <c r="K1" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L1" s="23"/>
       <c r="M1" s="102"/>
@@ -13196,7 +13196,7 @@
       <c r="P1" s="19"/>
       <c r="Q1" s="336"/>
       <c r="S1" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="U1" s="110"/>
       <c r="V1" s="166" t="s">
@@ -13206,7 +13206,7 @@
       <c r="X1" s="19"/>
       <c r="Y1" s="336"/>
       <c r="AA1" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AC1" s="110"/>
       <c r="AD1" s="166"/>
@@ -13214,7 +13214,7 @@
       <c r="AF1" s="19"/>
       <c r="AG1" s="336"/>
       <c r="AI1" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AK1" s="110"/>
       <c r="AL1" s="166"/>
@@ -13222,7 +13222,7 @@
       <c r="AN1" s="19"/>
       <c r="AO1" s="336"/>
       <c r="AQ1" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AS1" s="110"/>
       <c r="AT1" s="166"/>
@@ -13230,7 +13230,7 @@
       <c r="AV1" s="19"/>
       <c r="AW1" s="336"/>
       <c r="AY1" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BB1" s="110"/>
       <c r="BC1" s="309"/>
@@ -13239,7 +13239,7 @@
       <c r="BF1" s="345"/>
       <c r="BG1" s="16"/>
       <c r="BH1" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="BI1" s="16"/>
       <c r="BJ1" s="115"/>
@@ -13248,7 +13248,7 @@
       <c r="BM1" s="19"/>
       <c r="BN1" s="336"/>
       <c r="BP1" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="BR1" s="110"/>
       <c r="BS1" s="309"/>
@@ -13256,7 +13256,7 @@
       <c r="BU1" s="19"/>
       <c r="BV1" s="336"/>
       <c r="BX1" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="BZ1" s="110"/>
       <c r="CA1" s="309"/>
@@ -13264,7 +13264,7 @@
       <c r="CC1" s="19"/>
       <c r="CD1" s="336"/>
       <c r="CF1" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="CH1" s="110"/>
       <c r="CI1" s="309"/>
@@ -13272,7 +13272,7 @@
       <c r="CK1" s="19"/>
       <c r="CL1" s="336"/>
       <c r="CN1" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CP1" s="110"/>
       <c r="CQ1" s="309"/>
@@ -13280,7 +13280,7 @@
       <c r="CS1" s="19"/>
       <c r="CT1" s="336"/>
       <c r="CV1" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="CW1" s="17"/>
       <c r="CX1" s="110"/>
@@ -13300,7 +13300,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>4</v>
@@ -13312,321 +13312,321 @@
         <v>6</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I2" s="329" t="s">
-        <v>8</v>
+        <v>362</v>
       </c>
       <c r="J2" s="392" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="85" t="s">
+        <v>363</v>
+      </c>
+      <c r="L2" s="85" t="s">
+        <v>364</v>
+      </c>
+      <c r="M2" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="337" t="s">
+        <v>288</v>
+      </c>
+      <c r="R2" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="88" t="s">
         <v>289</v>
       </c>
-      <c r="L2" s="85" t="s">
+      <c r="T2" s="88" t="s">
         <v>290</v>
       </c>
-      <c r="M2" s="103" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="121" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="337" t="s">
+      <c r="U2" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="167" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="337" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z2" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="88" t="s">
         <v>292</v>
       </c>
-      <c r="R2" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="88" t="s">
+      <c r="AB2" s="88" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC2" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="167" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE2" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF2" s="87" t="s">
+        <v>361</v>
+      </c>
+      <c r="AG2" s="337" t="s">
+        <v>295</v>
+      </c>
+      <c r="AH2" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI2" s="88" t="s">
         <v>293</v>
       </c>
-      <c r="T2" s="88" t="s">
-        <v>294</v>
-      </c>
-      <c r="U2" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" s="124" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y2" s="337" t="s">
-        <v>295</v>
-      </c>
-      <c r="Z2" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA2" s="88" t="s">
+      <c r="AJ2" s="88" t="s">
+        <v>297</v>
+      </c>
+      <c r="AK2" s="111" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL2" s="167" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM2" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN2" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO2" s="337" t="s">
+        <v>298</v>
+      </c>
+      <c r="AP2" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ2" s="88" t="s">
         <v>296</v>
       </c>
-      <c r="AB2" s="88" t="s">
-        <v>298</v>
-      </c>
-      <c r="AC2" s="111" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD2" s="167" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE2" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF2" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG2" s="337" t="s">
+      <c r="AR2" s="88" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS2" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT2" s="167" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU2" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV2" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW2" s="337" t="s">
+        <v>301</v>
+      </c>
+      <c r="AX2" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY2" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="AH2" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI2" s="88" t="s">
-        <v>297</v>
-      </c>
-      <c r="AJ2" s="88" t="s">
-        <v>301</v>
-      </c>
-      <c r="AK2" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL2" s="167" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM2" s="124" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN2" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO2" s="337" t="s">
+      <c r="AZ2" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="BA2" s="88" t="s">
+        <v>303</v>
+      </c>
+      <c r="BB2" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC2" s="310" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD2" s="128" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE2" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF2" s="346" t="s">
+        <v>304</v>
+      </c>
+      <c r="BG2" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" s="90" t="s">
         <v>302</v>
       </c>
-      <c r="AP2" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ2" s="88" t="s">
-        <v>300</v>
-      </c>
-      <c r="AR2" s="88" t="s">
-        <v>304</v>
-      </c>
-      <c r="AS2" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT2" s="167" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU2" s="124" t="s">
-        <v>31</v>
-      </c>
-      <c r="AV2" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW2" s="337" t="s">
+      <c r="BI2" s="90" t="s">
+        <v>306</v>
+      </c>
+      <c r="BJ2" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="BK2" s="319" t="s">
+        <v>38</v>
+      </c>
+      <c r="BL2" s="158" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM2" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="BN2" s="351" t="s">
+        <v>307</v>
+      </c>
+      <c r="BO2" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP2" s="92" t="s">
         <v>305</v>
       </c>
-      <c r="AX2" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="AY2" s="88" t="s">
-        <v>303</v>
-      </c>
-      <c r="AZ2" s="88" t="s">
-        <v>332</v>
-      </c>
-      <c r="BA2" s="88" t="s">
-        <v>307</v>
-      </c>
-      <c r="BB2" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="BC2" s="310" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD2" s="128" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="BF2" s="346" t="s">
+      <c r="BQ2" s="92" t="s">
+        <v>309</v>
+      </c>
+      <c r="BR2" s="119" t="s">
+        <v>42</v>
+      </c>
+      <c r="BS2" s="324" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT2" s="132" t="s">
+        <v>44</v>
+      </c>
+      <c r="BU2" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="BV2" s="337" t="s">
+        <v>310</v>
+      </c>
+      <c r="BW2" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="BX2" s="88" t="s">
         <v>308</v>
       </c>
-      <c r="BG2" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="BH2" s="90" t="s">
-        <v>306</v>
-      </c>
-      <c r="BI2" s="90" t="s">
-        <v>310</v>
-      </c>
-      <c r="BJ2" s="116" t="s">
-        <v>39</v>
-      </c>
-      <c r="BK2" s="319" t="s">
-        <v>40</v>
-      </c>
-      <c r="BL2" s="158" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM2" s="91" t="s">
-        <v>42</v>
-      </c>
-      <c r="BN2" s="351" t="s">
+      <c r="BY2" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="BO2" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="BP2" s="92" t="s">
-        <v>309</v>
-      </c>
-      <c r="BQ2" s="92" t="s">
+      <c r="BZ2" s="111" t="s">
+        <v>47</v>
+      </c>
+      <c r="CA2" s="310" t="s">
+        <v>48</v>
+      </c>
+      <c r="CB2" s="124" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC2" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="CD2" s="337" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE2" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="CF2" s="88" t="s">
         <v>313</v>
       </c>
-      <c r="BR2" s="119" t="s">
-        <v>44</v>
-      </c>
-      <c r="BS2" s="324" t="s">
-        <v>45</v>
-      </c>
-      <c r="BT2" s="132" t="s">
-        <v>46</v>
-      </c>
-      <c r="BU2" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="BV2" s="337" t="s">
+      <c r="CG2" s="88" t="s">
+        <v>315</v>
+      </c>
+      <c r="CH2" s="111" t="s">
+        <v>52</v>
+      </c>
+      <c r="CI2" s="310" t="s">
+        <v>53</v>
+      </c>
+      <c r="CJ2" s="124" t="s">
+        <v>54</v>
+      </c>
+      <c r="CK2" s="133" t="s">
+        <v>55</v>
+      </c>
+      <c r="CL2" s="337" t="s">
+        <v>316</v>
+      </c>
+      <c r="CM2" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="CN2" s="88" t="s">
         <v>314</v>
       </c>
-      <c r="BW2" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="BX2" s="88" t="s">
-        <v>312</v>
-      </c>
-      <c r="BY2" s="88" t="s">
-        <v>315</v>
-      </c>
-      <c r="BZ2" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="CA2" s="310" t="s">
-        <v>50</v>
-      </c>
-      <c r="CB2" s="124" t="s">
-        <v>51</v>
-      </c>
-      <c r="CC2" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="CD2" s="337" t="s">
-        <v>316</v>
-      </c>
-      <c r="CE2" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="CF2" s="88" t="s">
+      <c r="CO2" s="88" t="s">
+        <v>318</v>
+      </c>
+      <c r="CP2" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="CQ2" s="310" t="s">
+        <v>58</v>
+      </c>
+      <c r="CR2" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="CS2" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="CT2" s="337" t="s">
+        <v>319</v>
+      </c>
+      <c r="CU2" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="CV2" s="88" t="s">
         <v>317</v>
       </c>
-      <c r="CG2" s="88" t="s">
-        <v>319</v>
-      </c>
-      <c r="CH2" s="111" t="s">
-        <v>54</v>
-      </c>
-      <c r="CI2" s="310" t="s">
-        <v>55</v>
-      </c>
-      <c r="CJ2" s="124" t="s">
-        <v>56</v>
-      </c>
-      <c r="CK2" s="133" t="s">
-        <v>57</v>
-      </c>
-      <c r="CL2" s="337" t="s">
+      <c r="CW2" s="88" t="s">
         <v>320</v>
       </c>
-      <c r="CM2" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="CN2" s="88" t="s">
-        <v>318</v>
-      </c>
-      <c r="CO2" s="88" t="s">
-        <v>322</v>
-      </c>
-      <c r="CP2" s="111" t="s">
-        <v>59</v>
-      </c>
-      <c r="CQ2" s="310" t="s">
-        <v>60</v>
-      </c>
-      <c r="CR2" s="124" t="s">
-        <v>61</v>
-      </c>
-      <c r="CS2" s="87" t="s">
+      <c r="CX2" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="CT2" s="337" t="s">
-        <v>323</v>
-      </c>
-      <c r="CU2" s="88" t="s">
+      <c r="CY2" s="310" t="s">
         <v>63</v>
       </c>
-      <c r="CV2" s="88" t="s">
-        <v>321</v>
-      </c>
-      <c r="CW2" s="88" t="s">
-        <v>324</v>
-      </c>
-      <c r="CX2" s="111" t="s">
+      <c r="CZ2" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="CY2" s="310" t="s">
+      <c r="DA2" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="CZ2" s="124" t="s">
+      <c r="DB2" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="DA2" s="93" t="s">
+      <c r="DC2" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="DB2" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="DC2" s="95" t="s">
-        <v>69</v>
-      </c>
       <c r="DD2" s="96" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="DE2" s="783" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="DF2" s="783" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="DG2" s="783" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="420" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="769"/>
       <c r="C3" s="51">
@@ -13637,10 +13637,10 @@
       </c>
       <c r="E3" s="423"/>
       <c r="F3" s="190" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G3" s="201" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H3" s="138">
         <v>1000</v>
@@ -13788,12 +13788,12 @@
       <c r="CY3" s="312"/>
       <c r="CZ3" s="126"/>
       <c r="DA3" s="440">
-        <f>SUM(H3:CZ3)</f>
+        <f t="shared" ref="DA3:DA66" si="0">SUM(H3:CZ3)</f>
         <v>84000</v>
       </c>
       <c r="DB3" s="440"/>
       <c r="DC3" s="553">
-        <f>SUM(D3-DA3)</f>
+        <f t="shared" ref="DC3:DC66" si="1">SUM(D3-DA3)</f>
         <v>0</v>
       </c>
       <c r="DD3" s="441"/>
@@ -13812,7 +13812,7 @@
     </row>
     <row r="4" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="417" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B4" s="770"/>
       <c r="C4" s="451">
@@ -13823,10 +13823,10 @@
       </c>
       <c r="E4" s="583"/>
       <c r="F4" s="197" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G4" s="584" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H4" s="585">
         <v>6000</v>
@@ -13950,12 +13950,12 @@
       <c r="CY4" s="312"/>
       <c r="CZ4" s="126"/>
       <c r="DA4" s="440">
-        <f>SUM(H4:CZ4)</f>
+        <f t="shared" si="0"/>
         <v>72000</v>
       </c>
       <c r="DB4" s="440"/>
       <c r="DC4" s="553">
-        <f>SUM(D4-DA4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD4" s="441"/>
@@ -13974,7 +13974,7 @@
     </row>
     <row r="5" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="413" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B5" s="771"/>
       <c r="C5" s="457">
@@ -13987,10 +13987,10 @@
         <v>6</v>
       </c>
       <c r="F5" s="308" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G5" s="203" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H5" s="141"/>
       <c r="I5" s="332"/>
@@ -14106,12 +14106,12 @@
       <c r="CY5" s="312"/>
       <c r="CZ5" s="126"/>
       <c r="DA5" s="440">
-        <f>SUM(H5:CZ5)</f>
+        <f t="shared" si="0"/>
         <v>36000</v>
       </c>
       <c r="DB5" s="440"/>
       <c r="DC5" s="553">
-        <f>SUM(D5-DA5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD5" s="441"/>
@@ -14130,7 +14130,7 @@
     </row>
     <row r="6" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="420" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="769">
         <v>8412584163</v>
@@ -14143,10 +14143,10 @@
       </c>
       <c r="E6" s="423"/>
       <c r="F6" s="190" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6" s="201" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H6" s="138">
         <v>8000</v>
@@ -14284,12 +14284,12 @@
       <c r="CY6" s="312"/>
       <c r="CZ6" s="126"/>
       <c r="DA6" s="440">
-        <f>SUM(H6:CZ6)</f>
+        <f t="shared" si="0"/>
         <v>144000</v>
       </c>
       <c r="DB6" s="440"/>
       <c r="DC6" s="553">
-        <f>SUM(D6-DA6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD6" s="441"/>
@@ -14308,7 +14308,7 @@
     </row>
     <row r="7" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="418" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="768">
         <v>8337860618</v>
@@ -14321,10 +14321,10 @@
       </c>
       <c r="E7" s="592"/>
       <c r="F7" s="198" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G7" s="201" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H7" s="141">
         <v>8000</v>
@@ -14472,12 +14472,12 @@
         <v>4000</v>
       </c>
       <c r="DA7" s="440">
-        <f>SUM(H7:CZ7)</f>
+        <f t="shared" si="0"/>
         <v>144000</v>
       </c>
       <c r="DB7" s="440"/>
       <c r="DC7" s="553">
-        <f>SUM(D7-DA7)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD7" s="441"/>
@@ -14496,7 +14496,7 @@
     </row>
     <row r="8" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="594" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B8" s="771"/>
       <c r="C8" s="431">
@@ -14509,10 +14509,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="193" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G8" s="203" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H8" s="141">
         <v>5000</v>
@@ -14636,12 +14636,12 @@
       <c r="CY8" s="312"/>
       <c r="CZ8" s="126"/>
       <c r="DA8" s="440">
-        <f>SUM(H8:CZ8)</f>
+        <f t="shared" si="0"/>
         <v>63000</v>
       </c>
       <c r="DB8" s="440"/>
       <c r="DC8" s="553">
-        <f>SUM(D8-DA8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD8" s="441"/>
@@ -14660,7 +14660,7 @@
     </row>
     <row r="9" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="407" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B9" s="45">
         <v>8388413597</v>
@@ -14673,10 +14673,10 @@
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="798" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G9" s="201" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H9" s="141"/>
       <c r="I9" s="332"/>
@@ -14802,12 +14802,12 @@
         <v>12000</v>
       </c>
       <c r="DA9" s="424">
-        <f>SUM(H9:CZ9)</f>
+        <f t="shared" si="0"/>
         <v>144000</v>
       </c>
       <c r="DB9" s="440"/>
       <c r="DC9" s="44">
-        <f>SUM(D9-DA9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD9" s="441"/>
@@ -14826,7 +14826,7 @@
     </row>
     <row r="10" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="594" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B10" s="771"/>
       <c r="C10" s="431">
@@ -14839,10 +14839,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="537" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G10" s="538" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H10" s="540"/>
       <c r="I10" s="542"/>
@@ -14960,16 +14960,16 @@
       <c r="CY10" s="604"/>
       <c r="CZ10" s="605"/>
       <c r="DA10" s="598">
-        <f>SUM(H10:CZ10)</f>
+        <f t="shared" si="0"/>
         <v>33800</v>
       </c>
       <c r="DB10" s="598"/>
       <c r="DC10" s="609">
-        <f>SUM(D10-DA10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD10" s="506" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="DE10" s="554">
         <f>SUM(Táblázat2[[#This Row],[SZÉP szállás 1 ]]+Táblázat2[[#This Row],[SZÉP-szálláshely]]+Táblázat2[[#This Row],[SZÉP-szálláshely3]]+Táblázat2[[#This Row],[SZÉP-szálláshely 4]]+Táblázat2[[#This Row],[SZÉP-szálláshely 5]]+Táblázat2[[#This Row],[SZÉP-szálláshely 6]]+Táblázat2[[#This Row],[SZÉP-szálláshely 7]]+Táblázat2[[#This Row],[SZÉP-szálláshely 8]]+Táblázat2[[#This Row],[SZÉP-szálláshely 9]]+Táblázat2[[#This Row],[SZÉP-szálláshely 10]]+Táblázat2[[#This Row],[SZÉP-szálláshely 11]]+Táblázat2[[#This Row],[SZÉP-szálláshely 12]])</f>
@@ -14986,7 +14986,7 @@
     </row>
     <row r="11" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="406" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B11" s="45"/>
       <c r="C11" s="432">
@@ -14997,10 +14997,10 @@
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="481" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G11" s="205" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H11" s="141"/>
       <c r="I11" s="332"/>
@@ -15104,12 +15104,12 @@
       <c r="CY11" s="311"/>
       <c r="CZ11" s="125"/>
       <c r="DA11" s="424">
-        <f>SUM(H11:CZ11)</f>
+        <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="DB11" s="424"/>
       <c r="DC11" s="44">
-        <f>SUM(D11-DA11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD11" s="429"/>
@@ -15128,7 +15128,7 @@
     </row>
     <row r="12" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="610" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="772">
         <v>8414773818</v>
@@ -15141,10 +15141,10 @@
       </c>
       <c r="E12" s="503"/>
       <c r="F12" s="564" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G12" s="566" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H12" s="539">
         <v>7000</v>
@@ -15286,12 +15286,12 @@
       </c>
       <c r="CZ12" s="620"/>
       <c r="DA12" s="614">
-        <f>SUM(H12:CZ12)</f>
+        <f t="shared" si="0"/>
         <v>120000</v>
       </c>
       <c r="DB12" s="614"/>
       <c r="DC12" s="622">
-        <f>SUM(D12-DA12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD12" s="441"/>
@@ -15310,7 +15310,7 @@
     </row>
     <row r="13" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="418" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13" s="771">
         <v>8406442581</v>
@@ -15323,10 +15323,10 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="198" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G13" s="204" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H13" s="141">
         <v>8000</v>
@@ -15470,16 +15470,16 @@
         <v>4000</v>
       </c>
       <c r="DA13" s="440">
-        <f>SUM(H13:CZ13)</f>
+        <f t="shared" si="0"/>
         <v>132000</v>
       </c>
       <c r="DB13" s="440"/>
       <c r="DC13" s="553">
-        <f>SUM(D13-DA13)</f>
+        <f t="shared" si="1"/>
         <v>12000</v>
       </c>
       <c r="DD13" s="506" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="DE13" s="554">
         <f>SUM(Táblázat2[[#This Row],[SZÉP szállás 1 ]]+Táblázat2[[#This Row],[SZÉP-szálláshely]]+Táblázat2[[#This Row],[SZÉP-szálláshely3]]+Táblázat2[[#This Row],[SZÉP-szálláshely 4]]+Táblázat2[[#This Row],[SZÉP-szálláshely 5]]+Táblázat2[[#This Row],[SZÉP-szálláshely 6]]+Táblázat2[[#This Row],[SZÉP-szálláshely 7]]+Táblázat2[[#This Row],[SZÉP-szálláshely 8]]+Táblázat2[[#This Row],[SZÉP-szálláshely 9]]+Táblázat2[[#This Row],[SZÉP-szálláshely 10]]+Táblázat2[[#This Row],[SZÉP-szálláshely 11]]+Táblázat2[[#This Row],[SZÉP-szálláshely 12]])</f>
@@ -15496,7 +15496,7 @@
     </row>
     <row r="14" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="631" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" s="775">
         <v>8374223421</v>
@@ -15509,10 +15509,10 @@
       </c>
       <c r="E14" s="270"/>
       <c r="F14" s="288" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G14" s="291" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H14" s="276">
         <v>8000</v>
@@ -15660,12 +15660,12 @@
       </c>
       <c r="CZ14" s="258"/>
       <c r="DA14" s="453">
-        <f>SUM(H14:CZ14)</f>
+        <f t="shared" si="0"/>
         <v>134000</v>
       </c>
       <c r="DB14" s="453"/>
       <c r="DC14" s="632">
-        <f>SUM(D14-DA14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD14" s="441"/>
@@ -15684,7 +15684,7 @@
     </row>
     <row r="15" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="413" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B15" s="771">
         <v>8372972613</v>
@@ -15697,10 +15697,10 @@
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="193" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G15" s="203" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H15" s="141">
         <v>8000</v>
@@ -15848,12 +15848,12 @@
       </c>
       <c r="CZ15" s="126"/>
       <c r="DA15" s="440">
-        <f>SUM(H15:CZ15)</f>
+        <f t="shared" si="0"/>
         <v>144000</v>
       </c>
       <c r="DB15" s="440"/>
       <c r="DC15" s="553">
-        <f>SUM(D15-DA15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD15" s="441"/>
@@ -15872,7 +15872,7 @@
     </row>
     <row r="16" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="406" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B16" s="45"/>
       <c r="C16" s="432">
@@ -15883,10 +15883,10 @@
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="481" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G16" s="205" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H16" s="141"/>
       <c r="I16" s="332"/>
@@ -16000,12 +16000,12 @@
       <c r="CY16" s="311"/>
       <c r="CZ16" s="125"/>
       <c r="DA16" s="424">
-        <f>SUM(H16:CZ16)</f>
+        <f t="shared" si="0"/>
         <v>42000</v>
       </c>
       <c r="DB16" s="424"/>
       <c r="DC16" s="44">
-        <f>SUM(D16-DA16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD16" s="429"/>
@@ -16024,7 +16024,7 @@
     </row>
     <row r="17" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="406" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B17" s="45"/>
       <c r="C17" s="432">
@@ -16035,10 +16035,10 @@
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="481" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G17" s="205" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H17" s="141"/>
       <c r="I17" s="332"/>
@@ -16150,12 +16150,12 @@
       <c r="CY17" s="311"/>
       <c r="CZ17" s="125"/>
       <c r="DA17" s="424">
-        <f>SUM(H17:CZ17)</f>
+        <f t="shared" si="0"/>
         <v>36000</v>
       </c>
       <c r="DB17" s="424"/>
       <c r="DC17" s="44">
-        <f>SUM(D17-DA17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD17" s="429"/>
@@ -16174,7 +16174,7 @@
     </row>
     <row r="18" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="418" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B18" s="771"/>
       <c r="C18" s="467">
@@ -16184,13 +16184,13 @@
         <v>42000</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F18" s="486" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G18" s="201" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H18" s="141">
         <v>6000</v>
@@ -16314,16 +16314,16 @@
       <c r="CY18" s="312"/>
       <c r="CZ18" s="126"/>
       <c r="DA18" s="440">
-        <f>SUM(H18:CZ18)</f>
+        <f t="shared" si="0"/>
         <v>69000</v>
       </c>
       <c r="DB18" s="440"/>
       <c r="DC18" s="553">
-        <f>SUM(D18-DA18)</f>
+        <f t="shared" si="1"/>
         <v>-27000</v>
       </c>
       <c r="DD18" s="506" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="DE18" s="554">
         <f>SUM(Táblázat2[[#This Row],[SZÉP szállás 1 ]]+Táblázat2[[#This Row],[SZÉP-szálláshely]]+Táblázat2[[#This Row],[SZÉP-szálláshely3]]+Táblázat2[[#This Row],[SZÉP-szálláshely 4]]+Táblázat2[[#This Row],[SZÉP-szálláshely 5]]+Táblázat2[[#This Row],[SZÉP-szálláshely 6]]+Táblázat2[[#This Row],[SZÉP-szálláshely 7]]+Táblázat2[[#This Row],[SZÉP-szálláshely 8]]+Táblázat2[[#This Row],[SZÉP-szálláshely 9]]+Táblázat2[[#This Row],[SZÉP-szálláshely 10]]+Táblázat2[[#This Row],[SZÉP-szálláshely 11]]+Táblázat2[[#This Row],[SZÉP-szálláshely 12]])</f>
@@ -16340,7 +16340,7 @@
     </row>
     <row r="19" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="413" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B19" s="771">
         <v>8377662620</v>
@@ -16353,10 +16353,10 @@
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="193" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G19" s="203" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H19" s="141">
         <v>8000</v>
@@ -16504,12 +16504,12 @@
       </c>
       <c r="CZ19" s="126"/>
       <c r="DA19" s="440">
-        <f>SUM(H19:CZ19)</f>
+        <f t="shared" si="0"/>
         <v>132000</v>
       </c>
       <c r="DB19" s="440"/>
       <c r="DC19" s="553">
-        <f>SUM(D19-DA19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD19" s="441"/>
@@ -16528,7 +16528,7 @@
     </row>
     <row r="20" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="631" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B20" s="775">
         <v>8410424304</v>
@@ -16541,10 +16541,10 @@
       </c>
       <c r="E20" s="270"/>
       <c r="F20" s="288" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G20" s="292" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H20" s="276">
         <v>8000</v>
@@ -16682,12 +16682,12 @@
       <c r="CY20" s="326"/>
       <c r="CZ20" s="258"/>
       <c r="DA20" s="453">
-        <f>SUM(H20:CZ20)</f>
+        <f t="shared" si="0"/>
         <v>144000</v>
       </c>
       <c r="DB20" s="453"/>
       <c r="DC20" s="632">
-        <f>SUM(D20-DA20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD20" s="441"/>
@@ -16706,7 +16706,7 @@
     </row>
     <row r="21" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="406" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B21" s="45"/>
       <c r="C21" s="432">
@@ -16717,10 +16717,10 @@
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="481" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G21" s="205" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H21" s="141"/>
       <c r="I21" s="332"/>
@@ -16824,12 +16824,12 @@
       <c r="CY21" s="311"/>
       <c r="CZ21" s="125"/>
       <c r="DA21" s="424">
-        <f>SUM(H21:CZ21)</f>
+        <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="DB21" s="424"/>
       <c r="DC21" s="44">
-        <f>SUM(D21-DA21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD21" s="429"/>
@@ -16848,7 +16848,7 @@
     </row>
     <row r="22" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="411" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B22" s="775"/>
       <c r="C22" s="446">
@@ -16861,10 +16861,10 @@
         <v>2</v>
       </c>
       <c r="F22" s="489" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G22" s="388" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H22" s="276"/>
       <c r="I22" s="332"/>
@@ -16986,12 +16986,12 @@
       <c r="CY22" s="326"/>
       <c r="CZ22" s="258"/>
       <c r="DA22" s="453">
-        <f>SUM(H22:CZ22)</f>
+        <f t="shared" si="0"/>
         <v>16500</v>
       </c>
       <c r="DB22" s="453"/>
       <c r="DC22" s="632">
-        <f>SUM(D22-DA22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD22" s="441"/>
@@ -17010,7 +17010,7 @@
     </row>
     <row r="23" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="410" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B23" s="259">
         <v>8417461418</v>
@@ -17025,10 +17025,10 @@
         <v>6</v>
       </c>
       <c r="F23" s="482" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G23" s="292" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H23" s="276"/>
       <c r="I23" s="332"/>
@@ -17136,12 +17136,12 @@
       <c r="CY23" s="325"/>
       <c r="CZ23" s="248"/>
       <c r="DA23" s="425">
-        <f>SUM(H23:CZ23)</f>
+        <f t="shared" si="0"/>
         <v>49500</v>
       </c>
       <c r="DB23" s="425"/>
       <c r="DC23" s="250">
-        <f>SUM(D23-DA23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD23" s="429"/>
@@ -17160,7 +17160,7 @@
     </row>
     <row r="24" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="631" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" s="773"/>
       <c r="C24" s="455">
@@ -17171,10 +17171,10 @@
       </c>
       <c r="E24" s="270"/>
       <c r="F24" s="288" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G24" s="292" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H24" s="276">
         <v>5500</v>
@@ -17322,12 +17322,12 @@
       <c r="CY24" s="326"/>
       <c r="CZ24" s="258"/>
       <c r="DA24" s="453">
-        <f>SUM(H24:CZ24)</f>
+        <f t="shared" si="0"/>
         <v>144000</v>
       </c>
       <c r="DB24" s="453"/>
       <c r="DC24" s="632">
-        <f>SUM(D24-DA24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD24" s="441"/>
@@ -17346,7 +17346,7 @@
     </row>
     <row r="25" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="413" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B25" s="771">
         <v>8411223108</v>
@@ -17359,10 +17359,10 @@
       </c>
       <c r="E25" s="33"/>
       <c r="F25" s="193" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G25" s="203" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H25" s="141">
         <v>8000</v>
@@ -17510,12 +17510,12 @@
         <v>4000</v>
       </c>
       <c r="DA25" s="440">
-        <f>SUM(H25:CZ25)</f>
+        <f t="shared" si="0"/>
         <v>144000</v>
       </c>
       <c r="DB25" s="440"/>
       <c r="DC25" s="553">
-        <f>SUM(D25-DA25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD25" s="441"/>
@@ -17534,7 +17534,7 @@
     </row>
     <row r="26" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="411" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B26" s="775"/>
       <c r="C26" s="446">
@@ -17545,10 +17545,10 @@
       </c>
       <c r="E26" s="270"/>
       <c r="F26" s="289" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G26" s="388" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H26" s="276">
         <v>6000</v>
@@ -17672,12 +17672,12 @@
       <c r="CY26" s="326"/>
       <c r="CZ26" s="258"/>
       <c r="DA26" s="453">
-        <f>SUM(H26:CZ26)</f>
+        <f t="shared" si="0"/>
         <v>75000</v>
       </c>
       <c r="DB26" s="453"/>
       <c r="DC26" s="632">
-        <f>SUM(D26-DA26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD26" s="441"/>
@@ -17696,7 +17696,7 @@
     </row>
     <row r="27" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="420" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B27" s="769">
         <v>8414973795</v>
@@ -17709,10 +17709,10 @@
       </c>
       <c r="E27" s="423"/>
       <c r="F27" s="190" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G27" s="201" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H27" s="141">
         <v>8000</v>
@@ -17838,12 +17838,12 @@
       <c r="CY27" s="312"/>
       <c r="CZ27" s="126"/>
       <c r="DA27" s="440">
-        <f>SUM(H27:CZ27)</f>
+        <f t="shared" si="0"/>
         <v>132000</v>
       </c>
       <c r="DB27" s="440"/>
       <c r="DC27" s="553">
-        <f>SUM(D27-DA27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD27" s="441"/>
@@ -17862,7 +17862,7 @@
     </row>
     <row r="28" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="420" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B28" s="769">
         <v>8366563642</v>
@@ -17875,10 +17875,10 @@
       </c>
       <c r="E28" s="423"/>
       <c r="F28" s="190" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G28" s="201" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H28" s="141">
         <v>8000</v>
@@ -18006,16 +18006,16 @@
       <c r="CY28" s="312"/>
       <c r="CZ28" s="126"/>
       <c r="DA28" s="440">
-        <f>SUM(H28:CZ28)</f>
+        <f t="shared" si="0"/>
         <v>126000</v>
       </c>
       <c r="DB28" s="440"/>
       <c r="DC28" s="553">
-        <f>SUM(D28-DA28)</f>
+        <f t="shared" si="1"/>
         <v>-7750</v>
       </c>
       <c r="DD28" s="506" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="DE28" s="554">
         <f>SUM(Táblázat2[[#This Row],[SZÉP szállás 1 ]]+Táblázat2[[#This Row],[SZÉP-szálláshely]]+Táblázat2[[#This Row],[SZÉP-szálláshely3]]+Táblázat2[[#This Row],[SZÉP-szálláshely 4]]+Táblázat2[[#This Row],[SZÉP-szálláshely 5]]+Táblázat2[[#This Row],[SZÉP-szálláshely 6]]+Táblázat2[[#This Row],[SZÉP-szálláshely 7]]+Táblázat2[[#This Row],[SZÉP-szálláshely 8]]+Táblázat2[[#This Row],[SZÉP-szálláshely 9]]+Táblázat2[[#This Row],[SZÉP-szálláshely 10]]+Táblázat2[[#This Row],[SZÉP-szálláshely 11]]+Táblázat2[[#This Row],[SZÉP-szálláshely 12]])</f>
@@ -18032,7 +18032,7 @@
     </row>
     <row r="29" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="418" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B29" s="771">
         <v>8362123966</v>
@@ -18045,10 +18045,10 @@
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="198" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G29" s="201" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H29" s="141">
         <v>8000</v>
@@ -18196,12 +18196,12 @@
       </c>
       <c r="CZ29" s="126"/>
       <c r="DA29" s="440">
-        <f>SUM(H29:CZ29)</f>
+        <f t="shared" si="0"/>
         <v>144000</v>
       </c>
       <c r="DB29" s="440"/>
       <c r="DC29" s="553">
-        <f>SUM(D29-DA29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD29" s="441"/>
@@ -18220,7 +18220,7 @@
     </row>
     <row r="30" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="418" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B30" s="768">
         <v>8382182267</v>
@@ -18235,10 +18235,10 @@
         <v>7</v>
       </c>
       <c r="F30" s="198" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G30" s="204" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H30" s="624">
         <v>8000</v>
@@ -18378,16 +18378,16 @@
       </c>
       <c r="CZ30" s="126"/>
       <c r="DA30" s="440">
-        <f>SUM(H30:CZ30)</f>
+        <f t="shared" si="0"/>
         <v>118300</v>
       </c>
       <c r="DB30" s="440"/>
       <c r="DC30" s="553">
-        <f>SUM(D30-DA30)</f>
+        <f t="shared" si="1"/>
         <v>-50</v>
       </c>
       <c r="DD30" s="506" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="DE30" s="554">
         <f>SUM(Táblázat2[[#This Row],[SZÉP szállás 1 ]]+Táblázat2[[#This Row],[SZÉP-szálláshely]]+Táblázat2[[#This Row],[SZÉP-szálláshely3]]+Táblázat2[[#This Row],[SZÉP-szálláshely 4]]+Táblázat2[[#This Row],[SZÉP-szálláshely 5]]+Táblázat2[[#This Row],[SZÉP-szálláshely 6]]+Táblázat2[[#This Row],[SZÉP-szálláshely 7]]+Táblázat2[[#This Row],[SZÉP-szálláshely 8]]+Táblázat2[[#This Row],[SZÉP-szálláshely 9]]+Táblázat2[[#This Row],[SZÉP-szálláshely 10]]+Táblázat2[[#This Row],[SZÉP-szálláshely 11]]+Táblázat2[[#This Row],[SZÉP-szálláshely 12]])</f>
@@ -18404,7 +18404,7 @@
     </row>
     <row r="31" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="637" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B31" s="773"/>
       <c r="C31" s="455">
@@ -18414,13 +18414,13 @@
         <v>114000</v>
       </c>
       <c r="E31" s="270" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F31" s="638" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G31" s="292" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H31" s="276">
         <v>8000</v>
@@ -18560,16 +18560,16 @@
       <c r="CY31" s="326"/>
       <c r="CZ31" s="258"/>
       <c r="DA31" s="453">
-        <f>SUM(H31:CZ31)</f>
+        <f t="shared" si="0"/>
         <v>114000</v>
       </c>
       <c r="DB31" s="453"/>
       <c r="DC31" s="632">
-        <f>SUM(D31-DA31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD31" s="506" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="DE31" s="554">
         <f>SUM(Táblázat2[[#This Row],[SZÉP szállás 1 ]]+Táblázat2[[#This Row],[SZÉP-szálláshely]]+Táblázat2[[#This Row],[SZÉP-szálláshely3]]+Táblázat2[[#This Row],[SZÉP-szálláshely 4]]+Táblázat2[[#This Row],[SZÉP-szálláshely 5]]+Táblázat2[[#This Row],[SZÉP-szálláshely 6]]+Táblázat2[[#This Row],[SZÉP-szálláshely 7]]+Táblázat2[[#This Row],[SZÉP-szálláshely 8]]+Táblázat2[[#This Row],[SZÉP-szálláshely 9]]+Táblázat2[[#This Row],[SZÉP-szálláshely 10]]+Táblázat2[[#This Row],[SZÉP-szálláshely 11]]+Táblázat2[[#This Row],[SZÉP-szálláshely 12]])</f>
@@ -18586,7 +18586,7 @@
     </row>
     <row r="32" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="417" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B32" s="770"/>
       <c r="C32" s="451">
@@ -18597,10 +18597,10 @@
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="197" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G32" s="204" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H32" s="141">
         <v>5000</v>
@@ -18746,12 +18746,12 @@
       <c r="CY32" s="312"/>
       <c r="CZ32" s="126"/>
       <c r="DA32" s="440">
-        <f>SUM(H32:CZ32)</f>
+        <f t="shared" si="0"/>
         <v>144000</v>
       </c>
       <c r="DB32" s="440"/>
       <c r="DC32" s="553">
-        <f>SUM(D32-DA32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD32" s="441"/>
@@ -18770,7 +18770,7 @@
     </row>
     <row r="33" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="408" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B33" s="54"/>
       <c r="C33" s="451">
@@ -18781,10 +18781,10 @@
       </c>
       <c r="E33" s="33"/>
       <c r="F33" s="307" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G33" s="206" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H33" s="141"/>
       <c r="I33" s="332"/>
@@ -18886,12 +18886,12 @@
       <c r="CY33" s="311"/>
       <c r="CZ33" s="125"/>
       <c r="DA33" s="424">
-        <f>SUM(H33:CZ33)</f>
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="DB33" s="424"/>
       <c r="DC33" s="44">
-        <f>SUM(D33-DA33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD33" s="429"/>
@@ -18910,7 +18910,7 @@
     </row>
     <row r="34" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="417" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B34" s="770"/>
       <c r="C34" s="451">
@@ -18921,10 +18921,10 @@
       </c>
       <c r="E34" s="583"/>
       <c r="F34" s="197" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G34" s="584" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H34" s="585">
         <v>7000</v>
@@ -19048,12 +19048,12 @@
       <c r="CY34" s="312"/>
       <c r="CZ34" s="126"/>
       <c r="DA34" s="440">
-        <f>SUM(H34:CZ34)</f>
+        <f t="shared" si="0"/>
         <v>84000</v>
       </c>
       <c r="DB34" s="440"/>
       <c r="DC34" s="553">
-        <f>SUM(D34-DA34)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD34" s="441"/>
@@ -19072,7 +19072,7 @@
     </row>
     <row r="35" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="416" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B35" s="776"/>
       <c r="C35" s="558">
@@ -19083,10 +19083,10 @@
       </c>
       <c r="E35" s="270"/>
       <c r="F35" s="495" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G35" s="291" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H35" s="276">
         <v>6100</v>
@@ -19210,12 +19210,12 @@
       <c r="CY35" s="326"/>
       <c r="CZ35" s="258"/>
       <c r="DA35" s="453">
-        <f>SUM(H35:CZ35)</f>
+        <f t="shared" si="0"/>
         <v>74000</v>
       </c>
       <c r="DB35" s="453"/>
       <c r="DC35" s="632">
-        <f>SUM(D35-DA35)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD35" s="441"/>
@@ -19234,7 +19234,7 @@
     </row>
     <row r="36" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="413" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B36" s="774">
         <v>8345441807</v>
@@ -19247,10 +19247,10 @@
       </c>
       <c r="E36" s="33"/>
       <c r="F36" s="193" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G36" s="203" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H36" s="141">
         <v>8000</v>
@@ -19398,12 +19398,12 @@
       </c>
       <c r="CZ36" s="126"/>
       <c r="DA36" s="440">
-        <f>SUM(H36:CZ36)</f>
+        <f t="shared" si="0"/>
         <v>132000</v>
       </c>
       <c r="DB36" s="440"/>
       <c r="DC36" s="553">
-        <f>SUM(D36-DA36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD36" s="441"/>
@@ -19422,7 +19422,7 @@
     </row>
     <row r="37" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="418" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B37" s="768"/>
       <c r="C37" s="467">
@@ -19433,10 +19433,10 @@
       </c>
       <c r="E37" s="33"/>
       <c r="F37" s="198" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G37" s="204" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H37" s="624">
         <v>7000</v>
@@ -19560,12 +19560,12 @@
       <c r="CY37" s="312"/>
       <c r="CZ37" s="126"/>
       <c r="DA37" s="440">
-        <f>SUM(H37:CZ37)</f>
+        <f t="shared" si="0"/>
         <v>84000</v>
       </c>
       <c r="DB37" s="440"/>
       <c r="DC37" s="553">
-        <f>SUM(D37-DA37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD37" s="441"/>
@@ -19584,7 +19584,7 @@
     </row>
     <row r="38" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="767" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B38" s="777"/>
       <c r="C38" s="643">
@@ -19595,10 +19595,10 @@
       </c>
       <c r="E38" s="497"/>
       <c r="F38" s="644" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G38" s="645" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H38" s="646"/>
       <c r="I38" s="647"/>
@@ -19730,16 +19730,16 @@
       </c>
       <c r="CZ38" s="668"/>
       <c r="DA38" s="657">
-        <f>SUM(H38:CZ38)</f>
+        <f t="shared" si="0"/>
         <v>97500</v>
       </c>
       <c r="DB38" s="657"/>
       <c r="DC38" s="670">
-        <f>SUM(D38-DA38)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD38" s="671" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="DE38" s="554">
         <f>SUM(Táblázat2[[#This Row],[SZÉP szállás 1 ]]+Táblázat2[[#This Row],[SZÉP-szálláshely]]+Táblázat2[[#This Row],[SZÉP-szálláshely3]]+Táblázat2[[#This Row],[SZÉP-szálláshely 4]]+Táblázat2[[#This Row],[SZÉP-szálláshely 5]]+Táblázat2[[#This Row],[SZÉP-szálláshely 6]]+Táblázat2[[#This Row],[SZÉP-szálláshely 7]]+Táblázat2[[#This Row],[SZÉP-szálláshely 8]]+Táblázat2[[#This Row],[SZÉP-szálláshely 9]]+Táblázat2[[#This Row],[SZÉP-szálláshely 10]]+Táblázat2[[#This Row],[SZÉP-szálláshely 11]]+Táblázat2[[#This Row],[SZÉP-szálláshely 12]])</f>
@@ -19756,7 +19756,7 @@
     </row>
     <row r="39" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="416" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B39" s="776"/>
       <c r="C39" s="558">
@@ -19767,10 +19767,10 @@
       </c>
       <c r="E39" s="270"/>
       <c r="F39" s="495" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G39" s="291" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H39" s="276">
         <v>8000</v>
@@ -19894,12 +19894,12 @@
       <c r="CY39" s="326"/>
       <c r="CZ39" s="258"/>
       <c r="DA39" s="453">
-        <f>SUM(H39:CZ39)</f>
+        <f t="shared" si="0"/>
         <v>80000</v>
       </c>
       <c r="DB39" s="453"/>
       <c r="DC39" s="632">
-        <f>SUM(D39-DA39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD39" s="441"/>
@@ -19918,7 +19918,7 @@
     </row>
     <row r="40" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="416" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B40" s="776"/>
       <c r="C40" s="672">
@@ -19929,10 +19929,10 @@
       </c>
       <c r="E40" s="270"/>
       <c r="F40" s="495" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G40" s="292" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H40" s="585">
         <v>7000</v>
@@ -20056,12 +20056,12 @@
       <c r="CY40" s="326"/>
       <c r="CZ40" s="258"/>
       <c r="DA40" s="453">
-        <f>SUM(H40:CZ40)</f>
+        <f t="shared" si="0"/>
         <v>84000</v>
       </c>
       <c r="DB40" s="453"/>
       <c r="DC40" s="632">
-        <f>SUM(D40-DA40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD40" s="441"/>
@@ -20080,7 +20080,7 @@
     </row>
     <row r="41" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="417" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B41" s="771">
         <v>8323365296</v>
@@ -20093,10 +20093,10 @@
       </c>
       <c r="E41" s="33"/>
       <c r="F41" s="197" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G41" s="584" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H41" s="141">
         <v>8000</v>
@@ -20244,12 +20244,12 @@
       </c>
       <c r="CZ41" s="126"/>
       <c r="DA41" s="440">
-        <f>SUM(H41:CZ41)</f>
+        <f t="shared" si="0"/>
         <v>138000</v>
       </c>
       <c r="DB41" s="440"/>
       <c r="DC41" s="553">
-        <f>SUM(D41-DA41)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD41" s="441"/>
@@ -20268,7 +20268,7 @@
     </row>
     <row r="42" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="407" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B42" s="37"/>
       <c r="C42" s="433">
@@ -20279,10 +20279,10 @@
       </c>
       <c r="E42" s="33"/>
       <c r="F42" s="306" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G42" s="204" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H42" s="141"/>
       <c r="I42" s="332"/>
@@ -20388,12 +20388,12 @@
       <c r="CY42" s="311"/>
       <c r="CZ42" s="125"/>
       <c r="DA42" s="424">
-        <f>SUM(H42:CZ42)</f>
+        <f t="shared" si="0"/>
         <v>18000</v>
       </c>
       <c r="DB42" s="440"/>
       <c r="DC42" s="44">
-        <f>SUM(D42-DA42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD42" s="441"/>
@@ -20412,7 +20412,7 @@
     </row>
     <row r="43" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="417" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B43" s="771">
         <v>8319742250</v>
@@ -20425,10 +20425,10 @@
       </c>
       <c r="E43" s="33"/>
       <c r="F43" s="197" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G43" s="201" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H43" s="141">
         <v>8000</v>
@@ -20576,12 +20576,12 @@
       </c>
       <c r="CZ43" s="126"/>
       <c r="DA43" s="440">
-        <f>SUM(H43:CZ43)</f>
+        <f t="shared" si="0"/>
         <v>144000</v>
       </c>
       <c r="DB43" s="440"/>
       <c r="DC43" s="553">
-        <f>SUM(D43-DA43)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD43" s="441"/>
@@ -20600,7 +20600,7 @@
     </row>
     <row r="44" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="417" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B44" s="770"/>
       <c r="C44" s="451">
@@ -20611,10 +20611,10 @@
       </c>
       <c r="E44" s="583"/>
       <c r="F44" s="197" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G44" s="584" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H44" s="585">
         <v>8000</v>
@@ -20740,12 +20740,12 @@
       <c r="CY44" s="312"/>
       <c r="CZ44" s="126"/>
       <c r="DA44" s="440">
-        <f>SUM(H44:CZ44)</f>
+        <f t="shared" si="0"/>
         <v>132000</v>
       </c>
       <c r="DB44" s="440"/>
       <c r="DC44" s="553">
-        <f>SUM(D44-DA44)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD44" s="441"/>
@@ -20764,7 +20764,7 @@
     </row>
     <row r="45" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="417" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B45" s="770"/>
       <c r="C45" s="56">
@@ -20777,10 +20777,10 @@
         <v>4</v>
       </c>
       <c r="F45" s="307" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G45" s="201" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H45" s="141"/>
       <c r="I45" s="332"/>
@@ -20898,12 +20898,12 @@
       <c r="CY45" s="312"/>
       <c r="CZ45" s="126"/>
       <c r="DA45" s="440">
-        <f>SUM(H45:CZ45)</f>
+        <f t="shared" si="0"/>
         <v>27000</v>
       </c>
       <c r="DB45" s="440"/>
       <c r="DC45" s="553">
-        <f>SUM(D45-DA45)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD45" s="441"/>
@@ -20922,7 +20922,7 @@
     </row>
     <row r="46" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="416" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B46" s="775"/>
       <c r="C46" s="672">
@@ -20933,10 +20933,10 @@
       </c>
       <c r="E46" s="270"/>
       <c r="F46" s="495" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G46" s="674" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H46" s="585">
         <v>6000</v>
@@ -21060,12 +21060,12 @@
       <c r="CY46" s="579"/>
       <c r="CZ46" s="258"/>
       <c r="DA46" s="453">
-        <f>SUM(H46:CZ46)</f>
+        <f t="shared" si="0"/>
         <v>82000</v>
       </c>
       <c r="DB46" s="453"/>
       <c r="DC46" s="632">
-        <f>SUM(D46-DA46)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD46" s="441"/>
@@ -21084,7 +21084,7 @@
     </row>
     <row r="47" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="417" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B47" s="770"/>
       <c r="C47" s="56">
@@ -21095,10 +21095,10 @@
       </c>
       <c r="E47" s="33"/>
       <c r="F47" s="197" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G47" s="201" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H47" s="141">
         <v>8000</v>
@@ -21246,12 +21246,12 @@
       <c r="CY47" s="312"/>
       <c r="CZ47" s="126"/>
       <c r="DA47" s="440">
-        <f>SUM(H47:CZ47)</f>
+        <f t="shared" si="0"/>
         <v>132000</v>
       </c>
       <c r="DB47" s="440"/>
       <c r="DC47" s="553">
-        <f>SUM(D47-DA47)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD47" s="441"/>
@@ -21270,7 +21270,7 @@
     </row>
     <row r="48" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="418" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B48" s="768">
         <v>8379802349</v>
@@ -21283,10 +21283,10 @@
       </c>
       <c r="E48" s="592"/>
       <c r="F48" s="198" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G48" s="201" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H48" s="624">
         <v>8000</v>
@@ -21434,12 +21434,12 @@
       </c>
       <c r="CZ48" s="126"/>
       <c r="DA48" s="440">
-        <f>SUM(H48:CZ48)</f>
+        <f t="shared" si="0"/>
         <v>144000</v>
       </c>
       <c r="DB48" s="440"/>
       <c r="DC48" s="553">
-        <f>SUM(D48-DA48)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD48" s="441"/>
@@ -21458,7 +21458,7 @@
     </row>
     <row r="49" spans="1:111" s="456" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="418" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B49" s="768">
         <v>8439690800</v>
@@ -21471,10 +21471,10 @@
       </c>
       <c r="E49" s="33"/>
       <c r="F49" s="198" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G49" s="204" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H49" s="141">
         <v>8000</v>
@@ -21610,12 +21610,12 @@
       </c>
       <c r="CZ49" s="126"/>
       <c r="DA49" s="440">
-        <f>SUM(H49:CZ49)</f>
+        <f t="shared" si="0"/>
         <v>132000</v>
       </c>
       <c r="DB49" s="440"/>
       <c r="DC49" s="553">
-        <f>SUM(D49-DA49)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD49" s="441"/>
@@ -21634,7 +21634,7 @@
     </row>
     <row r="50" spans="1:111" s="456" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="413" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B50" s="774">
         <v>8400932714</v>
@@ -21647,10 +21647,10 @@
       </c>
       <c r="E50" s="33"/>
       <c r="F50" s="193" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G50" s="203" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H50" s="624">
         <v>7000</v>
@@ -21776,12 +21776,12 @@
       </c>
       <c r="CZ50" s="126"/>
       <c r="DA50" s="440">
-        <f>SUM(H50:CZ50)</f>
+        <f t="shared" si="0"/>
         <v>88000</v>
       </c>
       <c r="DB50" s="440"/>
       <c r="DC50" s="553">
-        <f>SUM(D50-DA50)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD50" s="441"/>
@@ -21800,7 +21800,7 @@
     </row>
     <row r="51" spans="1:111" s="456" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="675" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B51" s="779">
         <v>8335054657</v>
@@ -21813,10 +21813,10 @@
       </c>
       <c r="E51" s="561"/>
       <c r="F51" s="677" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G51" s="678" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H51" s="141">
         <v>8000</v>
@@ -21964,12 +21964,12 @@
       </c>
       <c r="CZ51" s="126"/>
       <c r="DA51" s="440">
-        <f>SUM(H51:CZ51)</f>
+        <f t="shared" si="0"/>
         <v>144000</v>
       </c>
       <c r="DB51" s="580"/>
       <c r="DC51" s="679">
-        <f>SUM(D51-DA51)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD51" s="441"/>
@@ -21988,7 +21988,7 @@
     </row>
     <row r="52" spans="1:111" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="413" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B52" s="774"/>
       <c r="C52" s="457">
@@ -21999,10 +21999,10 @@
       </c>
       <c r="E52" s="33"/>
       <c r="F52" s="193" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G52" s="203" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H52" s="624">
         <v>7000</v>
@@ -22126,12 +22126,12 @@
       <c r="CY52" s="312"/>
       <c r="CZ52" s="126"/>
       <c r="DA52" s="440">
-        <f>SUM(H52:CZ52)</f>
+        <f t="shared" si="0"/>
         <v>84000</v>
       </c>
       <c r="DB52" s="440"/>
       <c r="DC52" s="553">
-        <f>SUM(D52-DA52)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD52" s="441"/>
@@ -22150,7 +22150,7 @@
     </row>
     <row r="53" spans="1:111" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="631" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B53" s="773">
         <v>8342632407</v>
@@ -22163,10 +22163,10 @@
       </c>
       <c r="E53" s="270"/>
       <c r="F53" s="288" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G53" s="291" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H53" s="276">
         <v>8000</v>
@@ -22314,12 +22314,12 @@
       </c>
       <c r="CZ53" s="258"/>
       <c r="DA53" s="453">
-        <f>SUM(H53:CZ53)</f>
+        <f t="shared" si="0"/>
         <v>132000</v>
       </c>
       <c r="DB53" s="453"/>
       <c r="DC53" s="632">
-        <f>SUM(D53-DA53)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD53" s="441"/>
@@ -22338,7 +22338,7 @@
     </row>
     <row r="54" spans="1:111" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="416" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B54" s="259"/>
       <c r="C54" s="442">
@@ -22349,10 +22349,10 @@
       </c>
       <c r="E54" s="270"/>
       <c r="F54" s="485" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G54" s="293" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H54" s="276"/>
       <c r="I54" s="332"/>
@@ -22454,12 +22454,12 @@
       <c r="CY54" s="325"/>
       <c r="CZ54" s="248"/>
       <c r="DA54" s="425">
-        <f>SUM(H54:CZ54)</f>
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="DB54" s="425"/>
       <c r="DC54" s="250">
-        <f>SUM(D54-DA54)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD54" s="429"/>
@@ -22478,7 +22478,7 @@
     </row>
     <row r="55" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="407" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B55" s="37"/>
       <c r="C55" s="433">
@@ -22489,10 +22489,10 @@
       </c>
       <c r="E55" s="70"/>
       <c r="F55" s="192" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G55" s="201" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H55" s="141"/>
       <c r="I55" s="332"/>
@@ -22616,12 +22616,12 @@
       <c r="CY55" s="311"/>
       <c r="CZ55" s="125"/>
       <c r="DA55" s="424">
-        <f>SUM(H55:CZ55)</f>
+        <f t="shared" si="0"/>
         <v>84000</v>
       </c>
       <c r="DB55" s="440"/>
       <c r="DC55" s="44">
-        <f>SUM(D55-DA55)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD55" s="441"/>
@@ -22640,7 +22640,7 @@
     </row>
     <row r="56" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="415" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B56" s="55"/>
       <c r="C56" s="457">
@@ -22651,10 +22651,10 @@
       </c>
       <c r="E56" s="59"/>
       <c r="F56" s="486" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G56" s="201" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H56" s="145"/>
       <c r="I56" s="331"/>
@@ -22760,12 +22760,12 @@
       <c r="CY56" s="311"/>
       <c r="CZ56" s="126"/>
       <c r="DA56" s="424">
-        <f>SUM(H56:CZ56)</f>
+        <f t="shared" si="0"/>
         <v>18000</v>
       </c>
       <c r="DB56" s="424"/>
       <c r="DC56" s="44">
-        <f>SUM(D56-DA56)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD56" s="429"/>
@@ -22784,7 +22784,7 @@
     </row>
     <row r="57" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="412" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B57" s="259">
         <v>8395354517</v>
@@ -22797,10 +22797,10 @@
       </c>
       <c r="E57" s="270"/>
       <c r="F57" s="287" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G57" s="293" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H57" s="276"/>
       <c r="I57" s="332"/>
@@ -22912,12 +22912,12 @@
       </c>
       <c r="CZ57" s="248"/>
       <c r="DA57" s="425">
-        <f>SUM(H57:CZ57)</f>
+        <f t="shared" si="0"/>
         <v>144000</v>
       </c>
       <c r="DB57" s="425"/>
       <c r="DC57" s="250">
-        <f>SUM(D57-DA57)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD57" s="429"/>
@@ -22936,7 +22936,7 @@
     </row>
     <row r="58" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="417" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B58" s="45">
         <v>8423520943</v>
@@ -22949,10 +22949,10 @@
       </c>
       <c r="E58" s="33"/>
       <c r="F58" s="191" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G58" s="202" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H58" s="141"/>
       <c r="I58" s="332"/>
@@ -23076,12 +23076,12 @@
         <v>6000</v>
       </c>
       <c r="DA58" s="424">
-        <f>SUM(H58:CZ58)</f>
+        <f t="shared" si="0"/>
         <v>73000</v>
       </c>
       <c r="DB58" s="424"/>
       <c r="DC58" s="44">
-        <f>SUM(D58-DA58)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD58" s="429"/>
@@ -23100,7 +23100,7 @@
     </row>
     <row r="59" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="634" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B59" s="768"/>
       <c r="C59" s="457">
@@ -23113,10 +23113,10 @@
         <v>4</v>
       </c>
       <c r="F59" s="486" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G59" s="201" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H59" s="585"/>
       <c r="I59" s="586"/>
@@ -23238,12 +23238,12 @@
       <c r="CY59" s="312"/>
       <c r="CZ59" s="126"/>
       <c r="DA59" s="440">
-        <f>SUM(H59:CZ59)</f>
+        <f t="shared" si="0"/>
         <v>33000</v>
       </c>
       <c r="DB59" s="440"/>
       <c r="DC59" s="553">
-        <f>SUM(D59-DA59)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD59" s="441"/>
@@ -23262,7 +23262,7 @@
     </row>
     <row r="60" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="631" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B60" s="773"/>
       <c r="C60" s="455">
@@ -23273,10 +23273,10 @@
       </c>
       <c r="E60" s="270"/>
       <c r="F60" s="288" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G60" s="292" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H60" s="585">
         <v>7000</v>
@@ -23400,12 +23400,12 @@
       <c r="CY60" s="326"/>
       <c r="CZ60" s="258"/>
       <c r="DA60" s="453">
-        <f>SUM(H60:CZ60)</f>
+        <f t="shared" si="0"/>
         <v>84000</v>
       </c>
       <c r="DB60" s="453"/>
       <c r="DC60" s="632">
-        <f>SUM(D60-DA60)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD60" s="441"/>
@@ -23424,7 +23424,7 @@
     </row>
     <row r="61" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="637" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B61" s="773"/>
       <c r="C61" s="446">
@@ -23435,10 +23435,10 @@
       </c>
       <c r="E61" s="680"/>
       <c r="F61" s="288" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G61" s="292" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H61" s="585">
         <v>6000</v>
@@ -23562,12 +23562,12 @@
       <c r="CY61" s="326"/>
       <c r="CZ61" s="258"/>
       <c r="DA61" s="453">
-        <f>SUM(H61:CZ61)</f>
+        <f t="shared" si="0"/>
         <v>80000</v>
       </c>
       <c r="DB61" s="453"/>
       <c r="DC61" s="632">
-        <f>SUM(D61-DA61)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD61" s="441"/>
@@ -23586,7 +23586,7 @@
     </row>
     <row r="62" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="415" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B62" s="55"/>
       <c r="C62" s="457">
@@ -23597,10 +23597,10 @@
       </c>
       <c r="E62" s="59"/>
       <c r="F62" s="486" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G62" s="201" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H62" s="145"/>
       <c r="I62" s="331"/>
@@ -23714,12 +23714,12 @@
       <c r="CY62" s="311"/>
       <c r="CZ62" s="126"/>
       <c r="DA62" s="424">
-        <f>SUM(H62:CZ62)</f>
+        <f t="shared" si="0"/>
         <v>42000</v>
       </c>
       <c r="DB62" s="424"/>
       <c r="DC62" s="44">
-        <f>SUM(D62-DA62)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD62" s="429"/>
@@ -23738,7 +23738,7 @@
     </row>
     <row r="63" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="415" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B63" s="40"/>
       <c r="C63" s="457">
@@ -23749,10 +23749,10 @@
       </c>
       <c r="E63" s="33"/>
       <c r="F63" s="308" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G63" s="207" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H63" s="141"/>
       <c r="I63" s="332"/>
@@ -23858,12 +23858,12 @@
       <c r="CY63" s="311"/>
       <c r="CZ63" s="126"/>
       <c r="DA63" s="424">
-        <f>SUM(H63:CZ63)</f>
+        <f t="shared" si="0"/>
         <v>18000</v>
       </c>
       <c r="DB63" s="424"/>
       <c r="DC63" s="44">
-        <f>SUM(D63-DA63)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD63" s="429"/>
@@ -23882,7 +23882,7 @@
     </row>
     <row r="64" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="413" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B64" s="774">
         <v>8361440909</v>
@@ -23895,10 +23895,10 @@
       </c>
       <c r="E64" s="33"/>
       <c r="F64" s="193" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G64" s="203" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H64" s="141">
         <v>8000</v>
@@ -24046,12 +24046,12 @@
       </c>
       <c r="CZ64" s="126"/>
       <c r="DA64" s="440">
-        <f>SUM(H64:CZ64)</f>
+        <f t="shared" si="0"/>
         <v>132000</v>
       </c>
       <c r="DB64" s="440"/>
       <c r="DC64" s="553">
-        <f>SUM(D64-DA64)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD64" s="441"/>
@@ -24070,7 +24070,7 @@
     </row>
     <row r="65" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="418" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B65" s="768"/>
       <c r="C65" s="623">
@@ -24081,10 +24081,10 @@
       </c>
       <c r="E65" s="33"/>
       <c r="F65" s="198" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G65" s="201" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H65" s="141">
         <v>6000</v>
@@ -24208,12 +24208,12 @@
       <c r="CY65" s="312"/>
       <c r="CZ65" s="126"/>
       <c r="DA65" s="440">
-        <f>SUM(H65:CZ65)</f>
+        <f t="shared" si="0"/>
         <v>81000</v>
       </c>
       <c r="DB65" s="440"/>
       <c r="DC65" s="553">
-        <f>SUM(D65-DA65)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD65" s="441"/>
@@ -24232,7 +24232,7 @@
     </row>
     <row r="66" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="418" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B66" s="771">
         <v>8386693703</v>
@@ -24245,10 +24245,10 @@
       </c>
       <c r="E66" s="33"/>
       <c r="F66" s="198" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G66" s="204" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H66" s="141">
         <v>8000</v>
@@ -24396,12 +24396,12 @@
       </c>
       <c r="CZ66" s="126"/>
       <c r="DA66" s="440">
-        <f>SUM(H66:CZ66)</f>
+        <f t="shared" si="0"/>
         <v>144000</v>
       </c>
       <c r="DB66" s="440"/>
       <c r="DC66" s="553">
-        <f>SUM(D66-DA66)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="DD66" s="441"/>
@@ -24420,7 +24420,7 @@
     </row>
     <row r="67" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="416" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B67" s="776"/>
       <c r="C67" s="672">
@@ -24431,10 +24431,10 @@
       </c>
       <c r="E67" s="682"/>
       <c r="F67" s="495" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G67" s="674" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H67" s="683">
         <v>6000</v>
@@ -24558,12 +24558,12 @@
       <c r="CY67" s="326"/>
       <c r="CZ67" s="258"/>
       <c r="DA67" s="453">
-        <f>SUM(H67:CZ67)</f>
+        <f t="shared" ref="DA67:DA130" si="2">SUM(H67:CZ67)</f>
         <v>72000</v>
       </c>
       <c r="DB67" s="453"/>
       <c r="DC67" s="632">
-        <f>SUM(D67-DA67)</f>
+        <f t="shared" ref="DC67:DC130" si="3">SUM(D67-DA67)</f>
         <v>0</v>
       </c>
       <c r="DD67" s="441"/>
@@ -24582,7 +24582,7 @@
     </row>
     <row r="68" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="418" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B68" s="768">
         <v>8330323846</v>
@@ -24595,10 +24595,10 @@
       </c>
       <c r="E68" s="592"/>
       <c r="F68" s="198" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G68" s="204" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H68" s="624">
         <v>8000</v>
@@ -24746,12 +24746,12 @@
       </c>
       <c r="CZ68" s="126"/>
       <c r="DA68" s="440">
-        <f>SUM(H68:CZ68)</f>
+        <f t="shared" si="2"/>
         <v>132000</v>
       </c>
       <c r="DB68" s="440"/>
       <c r="DC68" s="553">
-        <f>SUM(D68-DA68)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD68" s="441"/>
@@ -24770,7 +24770,7 @@
     </row>
     <row r="69" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="415" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B69" s="40"/>
       <c r="C69" s="457">
@@ -24781,10 +24781,10 @@
       </c>
       <c r="E69" s="33"/>
       <c r="F69" s="308" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G69" s="207" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H69" s="141"/>
       <c r="I69" s="332"/>
@@ -24898,12 +24898,12 @@
       <c r="CY69" s="311"/>
       <c r="CZ69" s="126"/>
       <c r="DA69" s="424">
-        <f>SUM(H69:CZ69)</f>
+        <f t="shared" si="2"/>
         <v>42000</v>
       </c>
       <c r="DB69" s="424"/>
       <c r="DC69" s="44">
-        <f>SUM(D69-DA69)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD69" s="429"/>
@@ -24922,7 +24922,7 @@
     </row>
     <row r="70" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="785" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B70" s="788">
         <v>8367773918</v>
@@ -24935,10 +24935,10 @@
       </c>
       <c r="E70" s="796"/>
       <c r="F70" s="800" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G70" s="802" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H70" s="805">
         <v>8000</v>
@@ -25070,12 +25070,12 @@
       <c r="CY70" s="695"/>
       <c r="CZ70" s="698"/>
       <c r="DA70" s="693">
-        <f>SUM(H70:CZ70)</f>
+        <f t="shared" si="2"/>
         <v>132000</v>
       </c>
       <c r="DB70" s="693"/>
       <c r="DC70" s="699">
-        <f>SUM(D70-DA70)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD70" s="441"/>
@@ -25094,7 +25094,7 @@
     </row>
     <row r="71" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="634" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B71" s="768">
         <v>8405002979</v>
@@ -25107,10 +25107,10 @@
       </c>
       <c r="E71" s="592"/>
       <c r="F71" s="193" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G71" s="207" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H71" s="141">
         <v>8000</v>
@@ -25258,12 +25258,12 @@
       </c>
       <c r="CZ71" s="126"/>
       <c r="DA71" s="440">
-        <f>SUM(H71:CZ71)</f>
+        <f t="shared" si="2"/>
         <v>144000</v>
       </c>
       <c r="DB71" s="440"/>
       <c r="DC71" s="553">
-        <f>SUM(D71-DA71)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD71" s="441"/>
@@ -25282,7 +25282,7 @@
     </row>
     <row r="72" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="418" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B72" s="768"/>
       <c r="C72" s="623">
@@ -25293,10 +25293,10 @@
       </c>
       <c r="E72" s="33"/>
       <c r="F72" s="486" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G72" s="201" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H72" s="624"/>
       <c r="I72" s="625"/>
@@ -25418,12 +25418,12 @@
       <c r="CY72" s="312"/>
       <c r="CZ72" s="126"/>
       <c r="DA72" s="440">
-        <f>SUM(H72:CZ72)</f>
+        <f t="shared" si="2"/>
         <v>63000</v>
       </c>
       <c r="DB72" s="440"/>
       <c r="DC72" s="553">
-        <f>SUM(D72-DA72)</f>
+        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
       <c r="DD72" s="441"/>
@@ -25442,7 +25442,7 @@
     </row>
     <row r="73" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="634" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B73" s="768"/>
       <c r="C73" s="457">
@@ -25455,10 +25455,10 @@
         <v>4</v>
       </c>
       <c r="F73" s="193" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G73" s="207" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H73" s="141">
         <v>5500</v>
@@ -25582,12 +25582,12 @@
       <c r="CY73" s="312"/>
       <c r="CZ73" s="126"/>
       <c r="DA73" s="440">
-        <f>SUM(H73:CZ73)</f>
+        <f t="shared" si="2"/>
         <v>66000</v>
       </c>
       <c r="DB73" s="440"/>
       <c r="DC73" s="553">
-        <f>SUM(D73-DA73)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD73" s="441"/>
@@ -25606,7 +25606,7 @@
     </row>
     <row r="74" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="418" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B74" s="768"/>
       <c r="C74" s="467">
@@ -25617,10 +25617,10 @@
       </c>
       <c r="E74" s="592"/>
       <c r="F74" s="198" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G74" s="201" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H74" s="624">
         <v>6000</v>
@@ -25744,12 +25744,12 @@
       <c r="CY74" s="312"/>
       <c r="CZ74" s="126"/>
       <c r="DA74" s="440">
-        <f>SUM(H74:CZ74)</f>
+        <f t="shared" si="2"/>
         <v>79000</v>
       </c>
       <c r="DB74" s="440"/>
       <c r="DC74" s="553">
-        <f>SUM(D74-DA74)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD74" s="441"/>
@@ -25768,7 +25768,7 @@
     </row>
     <row r="75" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="413" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B75" s="771">
         <v>8421163612</v>
@@ -25781,10 +25781,10 @@
       </c>
       <c r="E75" s="33"/>
       <c r="F75" s="193" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G75" s="203" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H75" s="141">
         <v>8000</v>
@@ -25932,12 +25932,12 @@
       </c>
       <c r="CZ75" s="126"/>
       <c r="DA75" s="440">
-        <f>SUM(H75:CZ75)</f>
+        <f t="shared" si="2"/>
         <v>144000</v>
       </c>
       <c r="DB75" s="440"/>
       <c r="DC75" s="553">
-        <f>SUM(D75-DA75)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD75" s="441"/>
@@ -25956,7 +25956,7 @@
     </row>
     <row r="76" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="417" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B76" s="770"/>
       <c r="C76" s="451">
@@ -25967,10 +25967,10 @@
       </c>
       <c r="E76" s="583"/>
       <c r="F76" s="197" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G76" s="584" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H76" s="585">
         <v>6000</v>
@@ -26094,12 +26094,12 @@
       <c r="CY76" s="312"/>
       <c r="CZ76" s="126"/>
       <c r="DA76" s="440">
-        <f>SUM(H76:CZ76)</f>
+        <f t="shared" si="2"/>
         <v>72000</v>
       </c>
       <c r="DB76" s="440"/>
       <c r="DC76" s="553">
-        <f>SUM(D76-DA76)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD76" s="441"/>
@@ -26118,7 +26118,7 @@
     </row>
     <row r="77" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="415" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B77" s="45">
         <v>8338553891</v>
@@ -26131,10 +26131,10 @@
       </c>
       <c r="E77" s="33"/>
       <c r="F77" s="196" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G77" s="201" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H77" s="141"/>
       <c r="I77" s="332"/>
@@ -26258,12 +26258,12 @@
       <c r="CY77" s="311"/>
       <c r="CZ77" s="125"/>
       <c r="DA77" s="424">
-        <f>SUM(H77:CZ77)</f>
+        <f t="shared" si="2"/>
         <v>144000</v>
       </c>
       <c r="DB77" s="424"/>
       <c r="DC77" s="44">
-        <f>SUM(D77-DA77)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD77" s="429"/>
@@ -26282,7 +26282,7 @@
     </row>
     <row r="78" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="413" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B78" s="771">
         <v>8381471273</v>
@@ -26295,10 +26295,10 @@
       </c>
       <c r="E78" s="33"/>
       <c r="F78" s="193" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G78" s="203" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H78" s="141">
         <v>8000</v>
@@ -26446,12 +26446,12 @@
       </c>
       <c r="CZ78" s="126"/>
       <c r="DA78" s="440">
-        <f>SUM(H78:CZ78)</f>
+        <f t="shared" si="2"/>
         <v>144000</v>
       </c>
       <c r="DB78" s="440"/>
       <c r="DC78" s="553">
-        <f>SUM(D78-DA78)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD78" s="441"/>
@@ -26470,7 +26470,7 @@
     </row>
     <row r="79" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="413" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B79" s="774"/>
       <c r="C79" s="457">
@@ -26481,10 +26481,10 @@
       </c>
       <c r="E79" s="33"/>
       <c r="F79" s="193" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G79" s="201" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H79" s="141">
         <v>8000</v>
@@ -26626,12 +26626,12 @@
       <c r="CY79" s="312"/>
       <c r="CZ79" s="126"/>
       <c r="DA79" s="440">
-        <f>SUM(H79:CZ79)</f>
+        <f t="shared" si="2"/>
         <v>144000</v>
       </c>
       <c r="DB79" s="440"/>
       <c r="DC79" s="553">
-        <f>SUM(D79-DA79)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD79" s="441"/>
@@ -26650,7 +26650,7 @@
     </row>
     <row r="80" spans="1:111" s="456" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="413" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B80" s="774"/>
       <c r="C80" s="69">
@@ -26661,10 +26661,10 @@
       </c>
       <c r="E80" s="33"/>
       <c r="F80" s="308" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G80" s="201" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H80" s="141"/>
       <c r="I80" s="332"/>
@@ -26786,12 +26786,12 @@
       <c r="CY80" s="312"/>
       <c r="CZ80" s="126"/>
       <c r="DA80" s="440">
-        <f>SUM(H80:CZ80)</f>
+        <f t="shared" si="2"/>
         <v>66000</v>
       </c>
       <c r="DB80" s="440"/>
       <c r="DC80" s="553">
-        <f>SUM(D80-DA80)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD80" s="441"/>
@@ -26810,7 +26810,7 @@
     </row>
     <row r="81" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="418" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B81" s="768"/>
       <c r="C81" s="623">
@@ -26821,10 +26821,10 @@
       </c>
       <c r="E81" s="33"/>
       <c r="F81" s="198" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G81" s="201" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H81" s="624">
         <v>6000</v>
@@ -26948,12 +26948,12 @@
       <c r="CY81" s="312"/>
       <c r="CZ81" s="126"/>
       <c r="DA81" s="440">
-        <f>SUM(H81:CZ81)</f>
+        <f t="shared" si="2"/>
         <v>78000</v>
       </c>
       <c r="DB81" s="440"/>
       <c r="DC81" s="553">
-        <f>SUM(D81-DA81)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD81" s="441"/>
@@ -26972,7 +26972,7 @@
     </row>
     <row r="82" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="634" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B82" s="771">
         <v>8378881652</v>
@@ -26985,10 +26985,10 @@
       </c>
       <c r="E82" s="33"/>
       <c r="F82" s="636" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G82" s="201" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H82" s="141">
         <v>8000</v>
@@ -27136,12 +27136,12 @@
       </c>
       <c r="CZ82" s="126"/>
       <c r="DA82" s="440">
-        <f>SUM(H82:CZ82)</f>
+        <f t="shared" si="2"/>
         <v>144000</v>
       </c>
       <c r="DB82" s="440"/>
       <c r="DC82" s="553">
-        <f>SUM(D82-DA82)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD82" s="441"/>
@@ -27160,7 +27160,7 @@
     </row>
     <row r="83" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="416" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B83" s="776">
         <v>8430042717</v>
@@ -27173,10 +27173,10 @@
       </c>
       <c r="E83" s="270"/>
       <c r="F83" s="495" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G83" s="674" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H83" s="141">
         <v>8000</v>
@@ -27312,12 +27312,12 @@
       </c>
       <c r="CZ83" s="258"/>
       <c r="DA83" s="453">
-        <f>SUM(H83:CZ83)</f>
+        <f t="shared" si="2"/>
         <v>132000</v>
       </c>
       <c r="DB83" s="453"/>
       <c r="DC83" s="632">
-        <f>SUM(D83-DA83)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD83" s="441"/>
@@ -27336,7 +27336,7 @@
     </row>
     <row r="84" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="417" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B84" s="771">
         <v>8396925003</v>
@@ -27349,10 +27349,10 @@
       </c>
       <c r="E84" s="33"/>
       <c r="F84" s="197" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G84" s="584" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H84" s="141">
         <v>8000</v>
@@ -27484,12 +27484,12 @@
       </c>
       <c r="CZ84" s="126"/>
       <c r="DA84" s="440">
-        <f>SUM(H84:CZ84)</f>
+        <f t="shared" si="2"/>
         <v>144000</v>
       </c>
       <c r="DB84" s="440"/>
       <c r="DC84" s="553">
-        <f>SUM(D84-DA84)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD84" s="441"/>
@@ -27508,7 +27508,7 @@
     </row>
     <row r="85" spans="1:111" s="456" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="418" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B85" s="768"/>
       <c r="C85" s="623">
@@ -27519,10 +27519,10 @@
       </c>
       <c r="E85" s="33"/>
       <c r="F85" s="198" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G85" s="201" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H85" s="624">
         <v>6000</v>
@@ -27646,12 +27646,12 @@
       <c r="CY85" s="312"/>
       <c r="CZ85" s="126"/>
       <c r="DA85" s="440">
-        <f>SUM(H85:CZ85)</f>
+        <f t="shared" si="2"/>
         <v>76000</v>
       </c>
       <c r="DB85" s="440"/>
       <c r="DC85" s="553">
-        <f>SUM(D85-DA85)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD85" s="441"/>
@@ -27670,7 +27670,7 @@
     </row>
     <row r="86" spans="1:111" s="456" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="417" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B86" s="770"/>
       <c r="C86" s="451">
@@ -27681,10 +27681,10 @@
       </c>
       <c r="E86" s="33"/>
       <c r="F86" s="197" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G86" s="204" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H86" s="141">
         <v>7000</v>
@@ -27808,12 +27808,12 @@
       <c r="CY86" s="312"/>
       <c r="CZ86" s="126"/>
       <c r="DA86" s="440">
-        <f>SUM(H86:CZ86)</f>
+        <f t="shared" si="2"/>
         <v>84000</v>
       </c>
       <c r="DB86" s="440"/>
       <c r="DC86" s="553">
-        <f>SUM(D86-DA86)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD86" s="441"/>
@@ -27832,7 +27832,7 @@
     </row>
     <row r="87" spans="1:111" s="386" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="419" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B87" s="367">
         <v>8358692234</v>
@@ -27845,10 +27845,10 @@
       </c>
       <c r="E87" s="369"/>
       <c r="F87" s="370" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G87" s="371" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H87" s="372"/>
       <c r="I87" s="372"/>
@@ -27970,12 +27970,12 @@
       <c r="CY87" s="241"/>
       <c r="CZ87" s="383"/>
       <c r="DA87" s="383">
-        <f>SUM(H87:CZ87)</f>
+        <f t="shared" si="2"/>
         <v>144000</v>
       </c>
       <c r="DB87" s="383"/>
       <c r="DC87" s="387">
-        <f>SUM(D87-DA87)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD87" s="385"/>
@@ -27994,7 +27994,7 @@
     </row>
     <row r="88" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="418" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B88" s="771">
         <v>8409941767</v>
@@ -28007,10 +28007,10 @@
       </c>
       <c r="E88" s="33"/>
       <c r="F88" s="198" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G88" s="201" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H88" s="141">
         <v>8000</v>
@@ -28158,12 +28158,12 @@
       </c>
       <c r="CZ88" s="126"/>
       <c r="DA88" s="440">
-        <f>SUM(H88:CZ88)</f>
+        <f t="shared" si="2"/>
         <v>144000</v>
       </c>
       <c r="DB88" s="440"/>
       <c r="DC88" s="553">
-        <f>SUM(D88-DA88)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD88" s="441"/>
@@ -28182,7 +28182,7 @@
     </row>
     <row r="89" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="418" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B89" s="768"/>
       <c r="C89" s="635">
@@ -28193,10 +28193,10 @@
       </c>
       <c r="E89" s="33"/>
       <c r="F89" s="198" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G89" s="201" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H89" s="141">
         <v>8000</v>
@@ -28342,12 +28342,12 @@
       <c r="CY89" s="312"/>
       <c r="CZ89" s="126"/>
       <c r="DA89" s="440">
-        <f>SUM(H89:CZ89)</f>
+        <f t="shared" si="2"/>
         <v>144000</v>
       </c>
       <c r="DB89" s="440"/>
       <c r="DC89" s="553">
-        <f>SUM(D89-DA89)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD89" s="441"/>
@@ -28366,7 +28366,7 @@
     </row>
     <row r="90" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="406" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B90" s="32"/>
       <c r="C90" s="432">
@@ -28379,10 +28379,10 @@
         <v>2</v>
       </c>
       <c r="F90" s="481" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G90" s="201" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H90" s="141"/>
       <c r="I90" s="332"/>
@@ -28486,12 +28486,12 @@
       <c r="CY90" s="311"/>
       <c r="CZ90" s="125"/>
       <c r="DA90" s="424">
-        <f>SUM(H90:CZ90)</f>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="DB90" s="424"/>
       <c r="DC90" s="44">
-        <f>SUM(D90-DA90)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD90" s="429"/>
@@ -28510,7 +28510,7 @@
     </row>
     <row r="91" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="413" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B91" s="774">
         <v>8412863038</v>
@@ -28523,10 +28523,10 @@
       </c>
       <c r="E91" s="33"/>
       <c r="F91" s="193" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G91" s="201" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H91" s="141">
         <v>7000</v>
@@ -28658,12 +28658,12 @@
       </c>
       <c r="CZ91" s="126"/>
       <c r="DA91" s="440">
-        <f>SUM(H91:CZ91)</f>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="DB91" s="440"/>
       <c r="DC91" s="553">
-        <f>SUM(D91-DA91)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD91" s="441"/>
@@ -28682,7 +28682,7 @@
     </row>
     <row r="92" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="408" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B92" s="54"/>
       <c r="C92" s="436">
@@ -28693,10 +28693,10 @@
       </c>
       <c r="E92" s="438"/>
       <c r="F92" s="191" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G92" s="202" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H92" s="145"/>
       <c r="I92" s="331"/>
@@ -28818,12 +28818,12 @@
       <c r="CY92" s="311"/>
       <c r="CZ92" s="125"/>
       <c r="DA92" s="424">
-        <f>SUM(H92:CZ92)</f>
+        <f t="shared" si="2"/>
         <v>72000</v>
       </c>
       <c r="DB92" s="424"/>
       <c r="DC92" s="44">
-        <f>SUM(D92-DA92)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD92" s="429"/>
@@ -28842,7 +28842,7 @@
     </row>
     <row r="93" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="552" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B93" s="37"/>
       <c r="C93" s="433">
@@ -28853,10 +28853,10 @@
       </c>
       <c r="E93" s="70"/>
       <c r="F93" s="192" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G93" s="201" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H93" s="143">
         <v>8000</v>
@@ -28976,12 +28976,12 @@
       <c r="CY93" s="311"/>
       <c r="CZ93" s="125"/>
       <c r="DA93" s="424">
-        <f>SUM(H93:CZ93)</f>
+        <f t="shared" si="2"/>
         <v>128000</v>
       </c>
       <c r="DB93" s="424"/>
       <c r="DC93" s="44">
-        <f>SUM(D93-DA93)</f>
+        <f t="shared" si="3"/>
         <v>16000</v>
       </c>
       <c r="DD93" s="429"/>
@@ -29000,7 +29000,7 @@
     </row>
     <row r="94" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="412" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B94" s="259">
         <v>8404824134</v>
@@ -29013,10 +29013,10 @@
       </c>
       <c r="E94" s="270"/>
       <c r="F94" s="287" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G94" s="803" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H94" s="276"/>
       <c r="I94" s="332"/>
@@ -29128,12 +29128,12 @@
       </c>
       <c r="CZ94" s="248"/>
       <c r="DA94" s="425">
-        <f>SUM(H94:CZ94)</f>
+        <f t="shared" si="2"/>
         <v>144000</v>
       </c>
       <c r="DB94" s="425"/>
       <c r="DC94" s="250">
-        <f>SUM(D94-DA94)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD94" s="429"/>
@@ -29152,7 +29152,7 @@
     </row>
     <row r="95" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="413" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B95" s="774">
         <v>8420661236</v>
@@ -29165,10 +29165,10 @@
       </c>
       <c r="E95" s="33"/>
       <c r="F95" s="193" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G95" s="207" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H95" s="141">
         <v>8000</v>
@@ -29316,12 +29316,12 @@
       </c>
       <c r="CZ95" s="126"/>
       <c r="DA95" s="440">
-        <f>SUM(H95:CZ95)</f>
+        <f t="shared" si="2"/>
         <v>132000</v>
       </c>
       <c r="DB95" s="440"/>
       <c r="DC95" s="553">
-        <f>SUM(D95-DA95)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD95" s="441"/>
@@ -29340,7 +29340,7 @@
     </row>
     <row r="96" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="411" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B96" s="778"/>
       <c r="C96" s="446">
@@ -29351,10 +29351,10 @@
       </c>
       <c r="E96" s="270"/>
       <c r="F96" s="289" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G96" s="292" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H96" s="276">
         <v>7000</v>
@@ -29488,12 +29488,12 @@
       <c r="CY96" s="326"/>
       <c r="CZ96" s="258"/>
       <c r="DA96" s="453">
-        <f>SUM(H96:CZ96)</f>
+        <f t="shared" si="2"/>
         <v>104000</v>
       </c>
       <c r="DB96" s="453"/>
       <c r="DC96" s="632">
-        <f>SUM(D96-DA96)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD96" s="441"/>
@@ -29512,7 +29512,7 @@
     </row>
     <row r="97" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="407" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B97" s="45"/>
       <c r="C97" s="462">
@@ -29523,10 +29523,10 @@
       </c>
       <c r="E97" s="33"/>
       <c r="F97" s="487" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G97" s="204" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H97" s="141"/>
       <c r="I97" s="332"/>
@@ -29638,12 +29638,12 @@
       <c r="CY97" s="311"/>
       <c r="CZ97" s="125"/>
       <c r="DA97" s="424">
-        <f>SUM(H97:CZ97)</f>
+        <f t="shared" si="2"/>
         <v>36000</v>
       </c>
       <c r="DB97" s="424"/>
       <c r="DC97" s="44">
-        <f>SUM(D97-DA97)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD97" s="429"/>
@@ -29662,7 +29662,7 @@
     </row>
     <row r="98" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="418" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B98" s="771">
         <v>8417051600</v>
@@ -29675,10 +29675,10 @@
       </c>
       <c r="E98" s="33"/>
       <c r="F98" s="198" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G98" s="204" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H98" s="141"/>
       <c r="I98" s="332"/>
@@ -29822,16 +29822,16 @@
       <c r="CY98" s="312"/>
       <c r="CZ98" s="126"/>
       <c r="DA98" s="440">
-        <f>SUM(H98:CZ98)</f>
+        <f t="shared" si="2"/>
         <v>121000</v>
       </c>
       <c r="DB98" s="440"/>
       <c r="DC98" s="553">
-        <f>SUM(D98-DA98)</f>
+        <f t="shared" si="3"/>
         <v>11000</v>
       </c>
       <c r="DD98" s="441" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="DE98" s="554">
         <f>SUM(Táblázat2[[#This Row],[SZÉP szállás 1 ]]+Táblázat2[[#This Row],[SZÉP-szálláshely]]+Táblázat2[[#This Row],[SZÉP-szálláshely3]]+Táblázat2[[#This Row],[SZÉP-szálláshely 4]]+Táblázat2[[#This Row],[SZÉP-szálláshely 5]]+Táblázat2[[#This Row],[SZÉP-szálláshely 6]]+Táblázat2[[#This Row],[SZÉP-szálláshely 7]]+Táblázat2[[#This Row],[SZÉP-szálláshely 8]]+Táblázat2[[#This Row],[SZÉP-szálláshely 9]]+Táblázat2[[#This Row],[SZÉP-szálláshely 10]]+Táblázat2[[#This Row],[SZÉP-szálláshely 11]]+Táblázat2[[#This Row],[SZÉP-szálláshely 12]])</f>
@@ -29848,7 +29848,7 @@
     </row>
     <row r="99" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="413" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B99" s="774"/>
       <c r="C99" s="457">
@@ -29859,10 +29859,10 @@
       </c>
       <c r="E99" s="33"/>
       <c r="F99" s="193" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G99" s="201" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H99" s="141">
         <v>7000</v>
@@ -29986,12 +29986,12 @@
       <c r="CY99" s="312"/>
       <c r="CZ99" s="126"/>
       <c r="DA99" s="440">
-        <f>SUM(H99:CZ99)</f>
+        <f t="shared" si="2"/>
         <v>84000</v>
       </c>
       <c r="DB99" s="440"/>
       <c r="DC99" s="553">
-        <f>SUM(D99-DA99)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD99" s="441"/>
@@ -30010,7 +30010,7 @@
     </row>
     <row r="100" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="413" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B100" s="774"/>
       <c r="C100" s="633">
@@ -30021,10 +30021,10 @@
       </c>
       <c r="E100" s="33"/>
       <c r="F100" s="193" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G100" s="201" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H100" s="141">
         <v>4300</v>
@@ -30172,12 +30172,12 @@
       <c r="CY100" s="312"/>
       <c r="CZ100" s="126"/>
       <c r="DA100" s="440">
-        <f>SUM(H100:CZ100)</f>
+        <f t="shared" si="2"/>
         <v>132000</v>
       </c>
       <c r="DB100" s="440"/>
       <c r="DC100" s="553">
-        <f>SUM(D100-DA100)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD100" s="441"/>
@@ -30196,7 +30196,7 @@
     </row>
     <row r="101" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="411" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B101" s="778">
         <v>8409404311</v>
@@ -30209,10 +30209,10 @@
       </c>
       <c r="E101" s="270"/>
       <c r="F101" s="289" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G101" s="292" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H101" s="276">
         <v>8000</v>
@@ -30348,12 +30348,12 @@
       </c>
       <c r="CZ101" s="258"/>
       <c r="DA101" s="453">
-        <f>SUM(H101:CZ101)</f>
+        <f t="shared" si="2"/>
         <v>142000</v>
       </c>
       <c r="DB101" s="453"/>
       <c r="DC101" s="632">
-        <f>SUM(D101-DA101)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD101" s="441"/>
@@ -30372,7 +30372,7 @@
     </row>
     <row r="102" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="413" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B102" s="774">
         <v>8353993228</v>
@@ -30385,10 +30385,10 @@
       </c>
       <c r="E102" s="33"/>
       <c r="F102" s="193" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G102" s="203" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H102" s="141">
         <v>8000</v>
@@ -30536,12 +30536,12 @@
       </c>
       <c r="CZ102" s="126"/>
       <c r="DA102" s="440">
-        <f>SUM(H102:CZ102)</f>
+        <f t="shared" si="2"/>
         <v>144000</v>
       </c>
       <c r="DB102" s="440"/>
       <c r="DC102" s="553">
-        <f>SUM(D102-DA102)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD102" s="441"/>
@@ -30560,7 +30560,7 @@
     </row>
     <row r="103" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="413" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B103" s="774">
         <v>8399835854</v>
@@ -30573,10 +30573,10 @@
       </c>
       <c r="E103" s="688"/>
       <c r="F103" s="193" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G103" s="201" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H103" s="141">
         <v>8000</v>
@@ -30724,12 +30724,12 @@
       </c>
       <c r="CZ103" s="126"/>
       <c r="DA103" s="440">
-        <f>SUM(H103:CZ103)</f>
+        <f t="shared" si="2"/>
         <v>132000</v>
       </c>
       <c r="DB103" s="440"/>
       <c r="DC103" s="553">
-        <f>SUM(D103-DA103)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD103" s="441"/>
@@ -30748,7 +30748,7 @@
     </row>
     <row r="104" spans="1:111" s="430" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="413" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B104" s="774"/>
       <c r="C104" s="457">
@@ -30759,10 +30759,10 @@
       </c>
       <c r="E104" s="688"/>
       <c r="F104" s="197" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G104" s="204" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H104" s="141">
         <v>7000</v>
@@ -30886,12 +30886,12 @@
       <c r="CY104" s="312"/>
       <c r="CZ104" s="126"/>
       <c r="DA104" s="440">
-        <f>SUM(H104:CZ104)</f>
+        <f t="shared" si="2"/>
         <v>84000</v>
       </c>
       <c r="DB104" s="440"/>
       <c r="DC104" s="553">
-        <f>SUM(D104-DA104)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD104" s="441"/>
@@ -30910,7 +30910,7 @@
     </row>
     <row r="105" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="406" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B105" s="32"/>
       <c r="C105" s="432">
@@ -30921,10 +30921,10 @@
       </c>
       <c r="E105" s="33"/>
       <c r="F105" s="195" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G105" s="206" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H105" s="141"/>
       <c r="I105" s="332"/>
@@ -31048,12 +31048,12 @@
       <c r="CY105" s="311"/>
       <c r="CZ105" s="125"/>
       <c r="DA105" s="424">
-        <f>SUM(H105:CZ105)</f>
+        <f t="shared" si="2"/>
         <v>144000</v>
       </c>
       <c r="DB105" s="424"/>
       <c r="DC105" s="44">
-        <f>SUM(D105-DA105)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD105" s="429"/>
@@ -31072,7 +31072,7 @@
     </row>
     <row r="106" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="407" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B106" s="789">
         <v>8400303598</v>
@@ -31085,10 +31085,10 @@
       </c>
       <c r="E106" s="797"/>
       <c r="F106" s="192" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G106" s="202" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H106" s="143"/>
       <c r="I106" s="333"/>
@@ -31200,12 +31200,12 @@
       </c>
       <c r="CZ106" s="125"/>
       <c r="DA106" s="424">
-        <f>SUM(H106:CZ106)</f>
+        <f t="shared" si="2"/>
         <v>120000</v>
       </c>
       <c r="DB106" s="424"/>
       <c r="DC106" s="44">
-        <f>SUM(D106-DA106)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD106" s="429"/>
@@ -31224,7 +31224,7 @@
     </row>
     <row r="107" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="413" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B107" s="774"/>
       <c r="C107" s="457">
@@ -31235,10 +31235,10 @@
       </c>
       <c r="E107" s="33"/>
       <c r="F107" s="193" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G107" s="203" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H107" s="141">
         <v>7000</v>
@@ -31386,12 +31386,12 @@
       <c r="CY107" s="312"/>
       <c r="CZ107" s="126"/>
       <c r="DA107" s="440">
-        <f>SUM(H107:CZ107)</f>
+        <f t="shared" si="2"/>
         <v>144000</v>
       </c>
       <c r="DB107" s="440"/>
       <c r="DC107" s="553">
-        <f>SUM(D107-DA107)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD107" s="441"/>
@@ -31410,7 +31410,7 @@
     </row>
     <row r="108" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="634" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B108" s="768"/>
       <c r="C108" s="623">
@@ -31421,10 +31421,10 @@
       </c>
       <c r="E108" s="592"/>
       <c r="F108" s="636" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G108" s="203" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H108" s="624">
         <v>6000</v>
@@ -31548,12 +31548,12 @@
       <c r="CY108" s="312"/>
       <c r="CZ108" s="126"/>
       <c r="DA108" s="440">
-        <f>SUM(H108:CZ108)</f>
+        <f t="shared" si="2"/>
         <v>76000</v>
       </c>
       <c r="DB108" s="440"/>
       <c r="DC108" s="553">
-        <f>SUM(D108-DA108)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD108" s="441"/>
@@ -31572,7 +31572,7 @@
     </row>
     <row r="109" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="417" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B109" s="770"/>
       <c r="C109" s="451">
@@ -31583,10 +31583,10 @@
       </c>
       <c r="E109" s="583"/>
       <c r="F109" s="197" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G109" s="584" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H109" s="585">
         <v>6000</v>
@@ -31710,12 +31710,12 @@
       <c r="CY109" s="312"/>
       <c r="CZ109" s="126"/>
       <c r="DA109" s="440">
-        <f>SUM(H109:CZ109)</f>
+        <f t="shared" si="2"/>
         <v>72000</v>
       </c>
       <c r="DB109" s="440"/>
       <c r="DC109" s="553">
-        <f>SUM(D109-DA109)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD109" s="441"/>
@@ -31734,7 +31734,7 @@
     </row>
     <row r="110" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="409" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B110" s="254"/>
       <c r="C110" s="450">
@@ -31745,10 +31745,10 @@
       </c>
       <c r="E110" s="270"/>
       <c r="F110" s="488" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G110" s="292" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H110" s="276"/>
       <c r="I110" s="332"/>
@@ -31862,12 +31862,12 @@
       <c r="CY110" s="325"/>
       <c r="CZ110" s="248"/>
       <c r="DA110" s="425">
-        <f>SUM(H110:CZ110)</f>
+        <f t="shared" si="2"/>
         <v>42000</v>
       </c>
       <c r="DB110" s="425"/>
       <c r="DC110" s="250">
-        <f>SUM(D110-DA110)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD110" s="429"/>
@@ -31886,7 +31886,7 @@
     </row>
     <row r="111" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="407" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B111" s="37"/>
       <c r="C111" s="433">
@@ -31897,10 +31897,10 @@
       </c>
       <c r="E111" s="70"/>
       <c r="F111" s="306" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G111" s="204" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H111" s="144"/>
       <c r="I111" s="334"/>
@@ -32014,12 +32014,12 @@
       <c r="CY111" s="311"/>
       <c r="CZ111" s="125"/>
       <c r="DA111" s="424">
-        <f>SUM(H111:CZ111)</f>
+        <f t="shared" si="2"/>
         <v>42000</v>
       </c>
       <c r="DB111" s="424"/>
       <c r="DC111" s="44">
-        <f>SUM(D111-DA111)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD111" s="464"/>
@@ -32038,7 +32038,7 @@
     </row>
     <row r="112" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="413" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B112" s="774"/>
       <c r="C112" s="457">
@@ -32049,10 +32049,10 @@
       </c>
       <c r="E112" s="33"/>
       <c r="F112" s="193" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G112" s="203" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H112" s="624">
         <v>6000</v>
@@ -32176,12 +32176,12 @@
       <c r="CY112" s="312"/>
       <c r="CZ112" s="126"/>
       <c r="DA112" s="440">
-        <f>SUM(H112:CZ112)</f>
+        <f t="shared" si="2"/>
         <v>77000</v>
       </c>
       <c r="DB112" s="440"/>
       <c r="DC112" s="553">
-        <f>SUM(D112-DA112)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD112" s="441"/>
@@ -32200,7 +32200,7 @@
     </row>
     <row r="113" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="634" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B113" s="768">
         <v>8373800506</v>
@@ -32213,10 +32213,10 @@
       </c>
       <c r="E113" s="33"/>
       <c r="F113" s="636" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G113" s="201" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H113" s="141">
         <v>8000</v>
@@ -32364,12 +32364,12 @@
       </c>
       <c r="CZ113" s="126"/>
       <c r="DA113" s="440">
-        <f>SUM(H113:CZ113)</f>
+        <f t="shared" si="2"/>
         <v>132000</v>
       </c>
       <c r="DB113" s="440"/>
       <c r="DC113" s="553">
-        <f>SUM(D113-DA113)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD113" s="441"/>
@@ -32388,7 +32388,7 @@
     </row>
     <row r="114" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="414" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B114" s="274"/>
       <c r="C114" s="449">
@@ -32399,10 +32399,10 @@
       </c>
       <c r="E114" s="466"/>
       <c r="F114" s="483" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G114" s="292" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H114" s="276"/>
       <c r="I114" s="332"/>
@@ -32516,12 +32516,12 @@
       <c r="CY114" s="325"/>
       <c r="CZ114" s="248"/>
       <c r="DA114" s="425">
-        <f>SUM(H114:CZ114)</f>
+        <f t="shared" si="2"/>
         <v>42000</v>
       </c>
       <c r="DB114" s="425"/>
       <c r="DC114" s="250">
-        <f>SUM(D114-DA114)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD114" s="429"/>
@@ -32540,7 +32540,7 @@
     </row>
     <row r="115" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="631" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B115" s="773"/>
       <c r="C115" s="707">
@@ -32551,10 +32551,10 @@
       </c>
       <c r="E115" s="270"/>
       <c r="F115" s="288" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G115" s="292" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H115" s="276">
         <v>8000</v>
@@ -32680,12 +32680,12 @@
       <c r="CY115" s="326"/>
       <c r="CZ115" s="258"/>
       <c r="DA115" s="453">
-        <f>SUM(H115:CZ115)</f>
+        <f t="shared" si="2"/>
         <v>132000</v>
       </c>
       <c r="DB115" s="453"/>
       <c r="DC115" s="632">
-        <f>SUM(D115-DA115)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD115" s="441"/>
@@ -32704,7 +32704,7 @@
     </row>
     <row r="116" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="631" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B116" s="773"/>
       <c r="C116" s="455">
@@ -32717,10 +32717,10 @@
         <v>4</v>
       </c>
       <c r="F116" s="489" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G116" s="294" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H116" s="276"/>
       <c r="I116" s="332"/>
@@ -32836,12 +32836,12 @@
       <c r="CY116" s="326"/>
       <c r="CZ116" s="258"/>
       <c r="DA116" s="453">
-        <f>SUM(H116:CZ116)</f>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
       <c r="DB116" s="453"/>
       <c r="DC116" s="632">
-        <f>SUM(D116-DA116)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD116" s="441"/>
@@ -32860,7 +32860,7 @@
     </row>
     <row r="117" spans="1:111" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="418" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B117" s="768"/>
       <c r="C117" s="467">
@@ -32871,10 +32871,10 @@
       </c>
       <c r="E117" s="33"/>
       <c r="F117" s="308" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G117" s="207" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H117" s="141"/>
       <c r="I117" s="332"/>
@@ -32996,12 +32996,12 @@
       <c r="CY117" s="312"/>
       <c r="CZ117" s="126"/>
       <c r="DA117" s="440">
-        <f>SUM(H117:CZ117)</f>
+        <f t="shared" si="2"/>
         <v>66000</v>
       </c>
       <c r="DB117" s="440"/>
       <c r="DC117" s="553">
-        <f>SUM(D117-DA117)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD117" s="441"/>
@@ -33020,7 +33020,7 @@
     </row>
     <row r="118" spans="1:111" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="634" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B118" s="768"/>
       <c r="C118" s="457">
@@ -33031,10 +33031,10 @@
       </c>
       <c r="E118" s="33"/>
       <c r="F118" s="193" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G118" s="207" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H118" s="141">
         <v>7000</v>
@@ -33158,12 +33158,12 @@
       <c r="CY118" s="312"/>
       <c r="CZ118" s="126"/>
       <c r="DA118" s="440">
-        <f>SUM(H118:CZ118)</f>
+        <f t="shared" si="2"/>
         <v>84000</v>
       </c>
       <c r="DB118" s="440"/>
       <c r="DC118" s="553">
-        <f>SUM(D118-DA118)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD118" s="441"/>
@@ -33182,7 +33182,7 @@
     </row>
     <row r="119" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="418" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B119" s="768">
         <v>8337252499</v>
@@ -33195,10 +33195,10 @@
       </c>
       <c r="E119" s="592"/>
       <c r="F119" s="198" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G119" s="204" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H119" s="624">
         <v>8000</v>
@@ -33346,12 +33346,12 @@
       </c>
       <c r="CZ119" s="126"/>
       <c r="DA119" s="440">
-        <f>SUM(H119:CZ119)</f>
+        <f t="shared" si="2"/>
         <v>132000</v>
       </c>
       <c r="DB119" s="440"/>
       <c r="DC119" s="553">
-        <f>SUM(D119-DA119)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD119" s="706"/>
@@ -33370,7 +33370,7 @@
     </row>
     <row r="120" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="631" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B120" s="773"/>
       <c r="C120" s="455">
@@ -33383,10 +33383,10 @@
         <v>6</v>
       </c>
       <c r="F120" s="288" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G120" s="291" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H120" s="276">
         <v>8000</v>
@@ -33510,12 +33510,12 @@
       <c r="CY120" s="326"/>
       <c r="CZ120" s="258"/>
       <c r="DA120" s="453">
-        <f>SUM(H120:CZ120)</f>
+        <f t="shared" si="2"/>
         <v>63000</v>
       </c>
       <c r="DB120" s="453"/>
       <c r="DC120" s="632">
-        <f>SUM(D120-DA120)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD120" s="441"/>
@@ -33534,7 +33534,7 @@
     </row>
     <row r="121" spans="1:111" s="456" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="407" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B121" s="37"/>
       <c r="C121" s="433">
@@ -33545,10 +33545,10 @@
       </c>
       <c r="E121" s="33"/>
       <c r="F121" s="191" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G121" s="206" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H121" s="141"/>
       <c r="I121" s="332"/>
@@ -33672,12 +33672,12 @@
       <c r="CY121" s="311"/>
       <c r="CZ121" s="125"/>
       <c r="DA121" s="424">
-        <f>SUM(H121:CZ121)</f>
+        <f t="shared" si="2"/>
         <v>84000</v>
       </c>
       <c r="DB121" s="424"/>
       <c r="DC121" s="44">
-        <f>SUM(D121-DA121)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD121" s="429"/>
@@ -33696,7 +33696,7 @@
     </row>
     <row r="122" spans="1:111" s="456" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="417" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B122" s="770"/>
       <c r="C122" s="451">
@@ -33709,10 +33709,10 @@
         <v>4</v>
       </c>
       <c r="F122" s="197" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G122" s="584" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H122" s="585">
         <v>3000</v>
@@ -33836,12 +33836,12 @@
       <c r="CY122" s="312"/>
       <c r="CZ122" s="126"/>
       <c r="DA122" s="440">
-        <f>SUM(H122:CZ122)</f>
+        <f t="shared" si="2"/>
         <v>36000</v>
       </c>
       <c r="DB122" s="440"/>
       <c r="DC122" s="553">
-        <f>SUM(D122-DA122)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD122" s="441"/>
@@ -33860,7 +33860,7 @@
     </row>
     <row r="123" spans="1:111" s="456" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="418" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B123" s="771">
         <v>8377213796</v>
@@ -33873,10 +33873,10 @@
       </c>
       <c r="E123" s="33"/>
       <c r="F123" s="198" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G123" s="201" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H123" s="585">
         <v>8000</v>
@@ -34008,12 +34008,12 @@
       <c r="CY123" s="312"/>
       <c r="CZ123" s="126"/>
       <c r="DA123" s="440">
-        <f>SUM(H123:CZ123)</f>
+        <f t="shared" si="2"/>
         <v>144000</v>
       </c>
       <c r="DB123" s="440"/>
       <c r="DC123" s="553">
-        <f>SUM(D123-DA123)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD123" s="441"/>
@@ -34032,7 +34032,7 @@
     </row>
     <row r="124" spans="1:111" s="456" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="418" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B124" s="771">
         <v>8392061764</v>
@@ -34045,10 +34045,10 @@
       </c>
       <c r="E124" s="33"/>
       <c r="F124" s="198" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G124" s="201" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H124" s="141">
         <v>8000</v>
@@ -34170,12 +34170,12 @@
       <c r="CY124" s="312"/>
       <c r="CZ124" s="126"/>
       <c r="DA124" s="440">
-        <f>SUM(H124:CZ124)</f>
+        <f t="shared" si="2"/>
         <v>144000</v>
       </c>
       <c r="DB124" s="440"/>
       <c r="DC124" s="553">
-        <f>SUM(D124-DA124)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD124" s="441"/>
@@ -34194,7 +34194,7 @@
     </row>
     <row r="125" spans="1:111" s="456" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="420" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B125" s="771"/>
       <c r="C125" s="461">
@@ -34205,10 +34205,10 @@
       </c>
       <c r="E125" s="423"/>
       <c r="F125" s="190" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G125" s="201" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H125" s="141">
         <v>6000</v>
@@ -34332,12 +34332,12 @@
       <c r="CY125" s="312"/>
       <c r="CZ125" s="126"/>
       <c r="DA125" s="440">
-        <f>SUM(H125:CZ125)</f>
+        <f t="shared" si="2"/>
         <v>79000</v>
       </c>
       <c r="DB125" s="440"/>
       <c r="DC125" s="553">
-        <f>SUM(D125-DA125)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD125" s="441"/>
@@ -34356,7 +34356,7 @@
     </row>
     <row r="126" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="634" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B126" s="768"/>
       <c r="C126" s="635">
@@ -34367,10 +34367,10 @@
       </c>
       <c r="E126" s="33"/>
       <c r="F126" s="636" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G126" s="201" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H126" s="141">
         <v>4500</v>
@@ -34518,12 +34518,12 @@
       <c r="CY126" s="312"/>
       <c r="CZ126" s="126"/>
       <c r="DA126" s="440">
-        <f>SUM(H126:CZ126)</f>
+        <f t="shared" si="2"/>
         <v>132000</v>
       </c>
       <c r="DB126" s="440"/>
       <c r="DC126" s="553">
-        <f>SUM(D126-DA126)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD126" s="441"/>
@@ -34542,7 +34542,7 @@
     </row>
     <row r="127" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="413" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B127" s="774"/>
       <c r="C127" s="457">
@@ -34552,13 +34552,13 @@
         <v>77000</v>
       </c>
       <c r="E127" s="688" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F127" s="193" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G127" s="204" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H127" s="804">
         <v>8000</v>
@@ -34682,16 +34682,16 @@
       <c r="CY127" s="312"/>
       <c r="CZ127" s="126"/>
       <c r="DA127" s="440">
-        <f>SUM(H127:CZ127)</f>
+        <f t="shared" si="2"/>
         <v>77000</v>
       </c>
       <c r="DB127" s="440"/>
       <c r="DC127" s="553">
-        <f>SUM(D127-DA127)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD127" s="506" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="DE127" s="554">
         <f>SUM(Táblázat2[[#This Row],[SZÉP szállás 1 ]]+Táblázat2[[#This Row],[SZÉP-szálláshely]]+Táblázat2[[#This Row],[SZÉP-szálláshely3]]+Táblázat2[[#This Row],[SZÉP-szálláshely 4]]+Táblázat2[[#This Row],[SZÉP-szálláshely 5]]+Táblázat2[[#This Row],[SZÉP-szálláshely 6]]+Táblázat2[[#This Row],[SZÉP-szálláshely 7]]+Táblázat2[[#This Row],[SZÉP-szálláshely 8]]+Táblázat2[[#This Row],[SZÉP-szálláshely 9]]+Táblázat2[[#This Row],[SZÉP-szálláshely 10]]+Táblázat2[[#This Row],[SZÉP-szálláshely 11]]+Táblázat2[[#This Row],[SZÉP-szálláshely 12]])</f>
@@ -34708,7 +34708,7 @@
     </row>
     <row r="128" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="418" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B128" s="768"/>
       <c r="C128" s="467">
@@ -34719,10 +34719,10 @@
       </c>
       <c r="E128" s="33"/>
       <c r="F128" s="198" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G128" s="201" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H128" s="141">
         <v>8000</v>
@@ -34870,12 +34870,12 @@
       <c r="CY128" s="312"/>
       <c r="CZ128" s="126"/>
       <c r="DA128" s="440">
-        <f>SUM(H128:CZ128)</f>
+        <f t="shared" si="2"/>
         <v>144000</v>
       </c>
       <c r="DB128" s="440"/>
       <c r="DC128" s="553">
-        <f>SUM(D128-DA128)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD128" s="441"/>
@@ -34894,7 +34894,7 @@
     </row>
     <row r="129" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="708" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B129" s="780">
         <v>8387640220</v>
@@ -34907,10 +34907,10 @@
       </c>
       <c r="E129" s="469"/>
       <c r="F129" s="710" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G129" s="711" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H129" s="296">
         <v>8000</v>
@@ -35058,12 +35058,12 @@
       </c>
       <c r="CZ129" s="718"/>
       <c r="DA129" s="581">
-        <f>SUM(H129:CZ129)</f>
+        <f t="shared" si="2"/>
         <v>144000</v>
       </c>
       <c r="DB129" s="581"/>
       <c r="DC129" s="719">
-        <f>SUM(D129-DA129)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD129" s="441"/>
@@ -35082,7 +35082,7 @@
     </row>
     <row r="130" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="413" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B130" s="45"/>
       <c r="C130" s="457">
@@ -35093,10 +35093,10 @@
       </c>
       <c r="E130" s="33"/>
       <c r="F130" s="308" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G130" s="203" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H130" s="141"/>
       <c r="I130" s="332"/>
@@ -35198,12 +35198,12 @@
       <c r="CY130" s="311"/>
       <c r="CZ130" s="126"/>
       <c r="DA130" s="424">
-        <f>SUM(H130:CZ130)</f>
+        <f t="shared" si="2"/>
         <v>6000</v>
       </c>
       <c r="DB130" s="440"/>
       <c r="DC130" s="44">
-        <f>SUM(D130-DA130)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DD130" s="441"/>
@@ -35222,7 +35222,7 @@
     </row>
     <row r="131" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="416" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B131" s="776"/>
       <c r="C131" s="672">
@@ -35235,10 +35235,10 @@
         <v>4</v>
       </c>
       <c r="F131" s="495" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G131" s="674" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H131" s="585">
         <v>3000</v>
@@ -35364,12 +35364,12 @@
       <c r="CY131" s="326"/>
       <c r="CZ131" s="258"/>
       <c r="DA131" s="453">
-        <f>SUM(H131:CZ131)</f>
+        <f t="shared" ref="DA131:DA194" si="4">SUM(H131:CZ131)</f>
         <v>66000</v>
       </c>
       <c r="DB131" s="453"/>
       <c r="DC131" s="632">
-        <f>SUM(D131-DA131)</f>
+        <f t="shared" ref="DC131:DC194" si="5">SUM(D131-DA131)</f>
         <v>0</v>
       </c>
       <c r="DD131" s="441"/>
@@ -35388,7 +35388,7 @@
     </row>
     <row r="132" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="411" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B132" s="259"/>
       <c r="C132" s="446">
@@ -35399,10 +35399,10 @@
       </c>
       <c r="E132" s="270"/>
       <c r="F132" s="489" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G132" s="388" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H132" s="276"/>
       <c r="I132" s="332"/>
@@ -35508,12 +35508,12 @@
       <c r="CY132" s="325"/>
       <c r="CZ132" s="258"/>
       <c r="DA132" s="425">
-        <f>SUM(H132:CZ132)</f>
+        <f t="shared" si="4"/>
         <v>18000</v>
       </c>
       <c r="DB132" s="453"/>
       <c r="DC132" s="250">
-        <f>SUM(D132-DA132)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD132" s="441"/>
@@ -35532,7 +35532,7 @@
     </row>
     <row r="133" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="413" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B133" s="45">
         <v>8319402123</v>
@@ -35545,10 +35545,10 @@
       </c>
       <c r="E133" s="33"/>
       <c r="F133" s="193" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G133" s="203" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H133" s="141"/>
       <c r="I133" s="332"/>
@@ -35662,12 +35662,12 @@
         <v>10000</v>
       </c>
       <c r="DA133" s="424">
-        <f>SUM(H133:CZ133)</f>
+        <f t="shared" si="4"/>
         <v>79000</v>
       </c>
       <c r="DB133" s="440"/>
       <c r="DC133" s="44">
-        <f>SUM(D133-DA133)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD133" s="441"/>
@@ -35686,7 +35686,7 @@
     </row>
     <row r="134" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="406" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B134" s="45">
         <v>8408953753</v>
@@ -35699,10 +35699,10 @@
       </c>
       <c r="E134" s="33"/>
       <c r="F134" s="195" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G134" s="201" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H134" s="141"/>
       <c r="I134" s="332"/>
@@ -35826,12 +35826,12 @@
         <v>12000</v>
       </c>
       <c r="DA134" s="424">
-        <f>SUM(H134:CZ134)</f>
+        <f t="shared" si="4"/>
         <v>144000</v>
       </c>
       <c r="DB134" s="424"/>
       <c r="DC134" s="44">
-        <f>SUM(D134-DA134)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD134" s="429"/>
@@ -35850,7 +35850,7 @@
     </row>
     <row r="135" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="406" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B135" s="45">
         <v>8388544241</v>
@@ -35863,10 +35863,10 @@
       </c>
       <c r="E135" s="33"/>
       <c r="F135" s="195" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G135" s="206" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H135" s="141"/>
       <c r="I135" s="332"/>
@@ -35988,16 +35988,16 @@
       <c r="CY135" s="311"/>
       <c r="CZ135" s="125"/>
       <c r="DA135" s="424">
-        <f>SUM(H135:CZ135)</f>
+        <f t="shared" si="4"/>
         <v>132000</v>
       </c>
       <c r="DB135" s="424"/>
       <c r="DC135" s="44">
-        <f>SUM(D135-DA135)</f>
+        <f t="shared" si="5"/>
         <v>12000</v>
       </c>
       <c r="DD135" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="DE135" s="504">
         <f>SUM(Táblázat2[[#This Row],[SZÉP szállás 1 ]]+Táblázat2[[#This Row],[SZÉP-szálláshely]]+Táblázat2[[#This Row],[SZÉP-szálláshely3]]+Táblázat2[[#This Row],[SZÉP-szálláshely 4]]+Táblázat2[[#This Row],[SZÉP-szálláshely 5]]+Táblázat2[[#This Row],[SZÉP-szálláshely 6]]+Táblázat2[[#This Row],[SZÉP-szálláshely 7]]+Táblázat2[[#This Row],[SZÉP-szálláshely 8]]+Táblázat2[[#This Row],[SZÉP-szálláshely 9]]+Táblázat2[[#This Row],[SZÉP-szálláshely 10]]+Táblázat2[[#This Row],[SZÉP-szálláshely 11]]+Táblázat2[[#This Row],[SZÉP-szálláshely 12]])</f>
@@ -36014,7 +36014,7 @@
     </row>
     <row r="136" spans="1:111" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="634" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B136" s="768"/>
       <c r="C136" s="467">
@@ -36025,10 +36025,10 @@
       </c>
       <c r="E136" s="592"/>
       <c r="F136" s="636" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G136" s="203" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H136" s="624">
         <v>7000</v>
@@ -36152,12 +36152,12 @@
       <c r="CY136" s="312"/>
       <c r="CZ136" s="126"/>
       <c r="DA136" s="440">
-        <f>SUM(H136:CZ136)</f>
+        <f t="shared" si="4"/>
         <v>84000</v>
       </c>
       <c r="DB136" s="440"/>
       <c r="DC136" s="553">
-        <f>SUM(D136-DA136)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD136" s="441"/>
@@ -36176,7 +36176,7 @@
     </row>
     <row r="137" spans="1:111" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="418" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B137" s="771">
         <v>8424392027</v>
@@ -36189,10 +36189,10 @@
       </c>
       <c r="E137" s="33"/>
       <c r="F137" s="198" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G137" s="201" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H137" s="141">
         <v>8000</v>
@@ -36322,12 +36322,12 @@
       <c r="CY137" s="312"/>
       <c r="CZ137" s="126"/>
       <c r="DA137" s="440">
-        <f>SUM(H137:CZ137)</f>
+        <f t="shared" si="4"/>
         <v>144000</v>
       </c>
       <c r="DB137" s="440"/>
       <c r="DC137" s="553">
-        <f>SUM(D137-DA137)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD137" s="441"/>
@@ -36346,7 +36346,7 @@
     </row>
     <row r="138" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="417" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B138" s="771">
         <v>8412374819</v>
@@ -36359,10 +36359,10 @@
       </c>
       <c r="E138" s="33"/>
       <c r="F138" s="197" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G138" s="204" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H138" s="141">
         <v>8000</v>
@@ -36510,12 +36510,12 @@
       </c>
       <c r="CZ138" s="126"/>
       <c r="DA138" s="440">
-        <f>SUM(H138:CZ138)</f>
+        <f t="shared" si="4"/>
         <v>144000</v>
       </c>
       <c r="DB138" s="440"/>
       <c r="DC138" s="553">
-        <f>SUM(D138-DA138)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD138" s="441"/>
@@ -36534,7 +36534,7 @@
     </row>
     <row r="139" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="418" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B139" s="771">
         <v>8405904395</v>
@@ -36547,10 +36547,10 @@
       </c>
       <c r="E139" s="33"/>
       <c r="F139" s="198" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G139" s="201" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H139" s="141">
         <v>8000</v>
@@ -36678,12 +36678,12 @@
       <c r="CY139" s="312"/>
       <c r="CZ139" s="126"/>
       <c r="DA139" s="440">
-        <f>SUM(H139:CZ139)</f>
+        <f t="shared" si="4"/>
         <v>139000</v>
       </c>
       <c r="DB139" s="440"/>
       <c r="DC139" s="553">
-        <f>SUM(D139-DA139)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD139" s="441"/>
@@ -36702,7 +36702,7 @@
     </row>
     <row r="140" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="417" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B140" s="770"/>
       <c r="C140" s="451">
@@ -36713,10 +36713,10 @@
       </c>
       <c r="E140" s="583"/>
       <c r="F140" s="197" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G140" s="584" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H140" s="585">
         <v>6000</v>
@@ -36840,12 +36840,12 @@
       <c r="CY140" s="312"/>
       <c r="CZ140" s="126"/>
       <c r="DA140" s="440">
-        <f>SUM(H140:CZ140)</f>
+        <f t="shared" si="4"/>
         <v>72000</v>
       </c>
       <c r="DB140" s="440"/>
       <c r="DC140" s="553">
-        <f>SUM(D140-DA140)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD140" s="441"/>
@@ -36864,7 +36864,7 @@
     </row>
     <row r="141" spans="1:111" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="413" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B141" s="771">
         <v>8333933769</v>
@@ -36877,10 +36877,10 @@
       </c>
       <c r="E141" s="33"/>
       <c r="F141" s="193" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G141" s="203" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H141" s="141"/>
       <c r="I141" s="332"/>
@@ -37018,12 +37018,12 @@
         <v>4000</v>
       </c>
       <c r="DA141" s="440">
-        <f>SUM(H141:CZ141)</f>
+        <f t="shared" si="4"/>
         <v>144000</v>
       </c>
       <c r="DB141" s="440"/>
       <c r="DC141" s="553">
-        <f>SUM(D141-DA141)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD141" s="441"/>
@@ -37042,7 +37042,7 @@
     </row>
     <row r="142" spans="1:111" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="413" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B142" s="774">
         <v>8335832536</v>
@@ -37055,10 +37055,10 @@
       </c>
       <c r="E142" s="688"/>
       <c r="F142" s="193" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G142" s="204" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H142" s="624">
         <v>8000</v>
@@ -37206,12 +37206,12 @@
       </c>
       <c r="CZ142" s="126"/>
       <c r="DA142" s="440">
-        <f>SUM(H142:CZ142)</f>
+        <f t="shared" si="4"/>
         <v>132000</v>
       </c>
       <c r="DB142" s="440"/>
       <c r="DC142" s="553">
-        <f>SUM(D142-DA142)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD142" s="441"/>
@@ -37230,7 +37230,7 @@
     </row>
     <row r="143" spans="1:111" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="421" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B143" s="216">
         <v>8372162271</v>
@@ -37243,10 +37243,10 @@
       </c>
       <c r="E143" s="472"/>
       <c r="F143" s="290" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G143" s="295" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H143" s="220"/>
       <c r="I143" s="332"/>
@@ -37358,12 +37358,12 @@
       </c>
       <c r="CZ143" s="212"/>
       <c r="DA143" s="473">
-        <f>SUM(H143:CZ143)</f>
+        <f t="shared" si="4"/>
         <v>144000</v>
       </c>
       <c r="DB143" s="473"/>
       <c r="DC143" s="214">
-        <f>SUM(D143-DA143)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD143" s="429"/>
@@ -37382,7 +37382,7 @@
     </row>
     <row r="144" spans="1:111" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="421" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B144" s="285"/>
       <c r="C144" s="470">
@@ -37393,10 +37393,10 @@
       </c>
       <c r="E144" s="286"/>
       <c r="F144" s="490" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G144" s="295" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H144" s="475"/>
       <c r="I144" s="331"/>
@@ -37500,12 +37500,12 @@
       <c r="CY144" s="327"/>
       <c r="CZ144" s="212"/>
       <c r="DA144" s="473">
-        <f>SUM(H144:CZ144)</f>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="DB144" s="473"/>
       <c r="DC144" s="214">
-        <f>SUM(D144-DA144)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD144" s="429"/>
@@ -37524,7 +37524,7 @@
     </row>
     <row r="145" spans="1:111" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="408" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B145" s="45"/>
       <c r="C145" s="436">
@@ -37537,10 +37537,10 @@
         <v>2</v>
       </c>
       <c r="F145" s="484" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G145" s="202" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H145" s="141"/>
       <c r="I145" s="332"/>
@@ -37656,12 +37656,12 @@
       <c r="CY145" s="311"/>
       <c r="CZ145" s="125"/>
       <c r="DA145" s="424">
-        <f>SUM(H145:CZ145)</f>
+        <f t="shared" si="4"/>
         <v>25500</v>
       </c>
       <c r="DB145" s="424"/>
       <c r="DC145" s="44">
-        <f>SUM(D145-DA145)</f>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="DD145" s="429"/>
@@ -37680,7 +37680,7 @@
     </row>
     <row r="146" spans="1:111" s="430" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="634" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B146" s="768"/>
       <c r="C146" s="467">
@@ -37691,10 +37691,10 @@
       </c>
       <c r="E146" s="33"/>
       <c r="F146" s="636" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G146" s="201" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H146" s="141">
         <v>7000</v>
@@ -37842,12 +37842,12 @@
       <c r="CY146" s="312"/>
       <c r="CZ146" s="126"/>
       <c r="DA146" s="440">
-        <f>SUM(H146:CZ146)</f>
+        <f t="shared" si="4"/>
         <v>144000</v>
       </c>
       <c r="DB146" s="440"/>
       <c r="DC146" s="553">
-        <f>SUM(D146-DA146)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD146" s="441"/>
@@ -37866,7 +37866,7 @@
     </row>
     <row r="147" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="406" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B147" s="32">
         <v>8332344077</v>
@@ -37879,10 +37879,10 @@
       </c>
       <c r="E147" s="33"/>
       <c r="F147" s="195" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G147" s="205" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H147" s="141"/>
       <c r="I147" s="332"/>
@@ -38006,12 +38006,12 @@
       <c r="CY147" s="311"/>
       <c r="CZ147" s="125"/>
       <c r="DA147" s="424">
-        <f>SUM(H147:CZ147)</f>
+        <f t="shared" si="4"/>
         <v>144000</v>
       </c>
       <c r="DB147" s="424"/>
       <c r="DC147" s="44">
-        <f>SUM(D147-DA147)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD147" s="429"/>
@@ -38030,7 +38030,7 @@
     </row>
     <row r="148" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="418" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B148" s="771">
         <v>8429192263</v>
@@ -38043,10 +38043,10 @@
       </c>
       <c r="E148" s="33"/>
       <c r="F148" s="198" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G148" s="201" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H148" s="141">
         <v>8000</v>
@@ -38194,12 +38194,12 @@
       </c>
       <c r="CZ148" s="126"/>
       <c r="DA148" s="440">
-        <f>SUM(H148:CZ148)</f>
+        <f t="shared" si="4"/>
         <v>132000</v>
       </c>
       <c r="DB148" s="440"/>
       <c r="DC148" s="553">
-        <f>SUM(D148-DA148)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD148" s="441"/>
@@ -38218,7 +38218,7 @@
     </row>
     <row r="149" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="417" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B149" s="771">
         <v>8366800504</v>
@@ -38231,10 +38231,10 @@
       </c>
       <c r="E149" s="33"/>
       <c r="F149" s="197" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G149" s="584" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H149" s="141">
         <v>5000</v>
@@ -38370,12 +38370,12 @@
       </c>
       <c r="CZ149" s="126"/>
       <c r="DA149" s="440">
-        <f>SUM(H149:CZ149)</f>
+        <f t="shared" si="4"/>
         <v>143000</v>
       </c>
       <c r="DB149" s="440"/>
       <c r="DC149" s="553">
-        <f>SUM(D149-DA149)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD149" s="441"/>
@@ -38394,7 +38394,7 @@
     </row>
     <row r="150" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="407" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B150" s="45">
         <v>8318714822</v>
@@ -38407,10 +38407,10 @@
       </c>
       <c r="E150" s="33"/>
       <c r="F150" s="192" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G150" s="201" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H150" s="141"/>
       <c r="I150" s="332"/>
@@ -38534,12 +38534,12 @@
       <c r="CY150" s="314"/>
       <c r="CZ150" s="125"/>
       <c r="DA150" s="424">
-        <f>SUM(H150:CZ150)</f>
+        <f t="shared" si="4"/>
         <v>144000</v>
       </c>
       <c r="DB150" s="424"/>
       <c r="DC150" s="44">
-        <f>SUM(D150-DA150)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD150" s="429"/>
@@ -38558,7 +38558,7 @@
     </row>
     <row r="151" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="631" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B151" s="773"/>
       <c r="C151" s="455">
@@ -38569,10 +38569,10 @@
       </c>
       <c r="E151" s="270"/>
       <c r="F151" s="495" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G151" s="291" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H151" s="276">
         <v>8000</v>
@@ -38718,12 +38718,12 @@
       <c r="CY151" s="326"/>
       <c r="CZ151" s="258"/>
       <c r="DA151" s="453">
-        <f>SUM(H151:CZ151)</f>
+        <f t="shared" si="4"/>
         <v>132000</v>
       </c>
       <c r="DB151" s="453"/>
       <c r="DC151" s="632">
-        <f>SUM(D151-DA151)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD151" s="706"/>
@@ -38742,7 +38742,7 @@
     </row>
     <row r="152" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="412" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B152" s="253"/>
       <c r="C152" s="442">
@@ -38753,10 +38753,10 @@
       </c>
       <c r="E152" s="275"/>
       <c r="F152" s="485" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G152" s="293" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H152" s="277"/>
       <c r="I152" s="331"/>
@@ -38866,12 +38866,12 @@
       <c r="CY152" s="325"/>
       <c r="CZ152" s="248"/>
       <c r="DA152" s="425">
-        <f>SUM(H152:CZ152)</f>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="DB152" s="425"/>
       <c r="DC152" s="250">
-        <f>SUM(D152-DA152)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD152" s="429"/>
@@ -38890,7 +38890,7 @@
     </row>
     <row r="153" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="417" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B153" s="770"/>
       <c r="C153" s="451">
@@ -38901,10 +38901,10 @@
       </c>
       <c r="E153" s="583"/>
       <c r="F153" s="197" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G153" s="584" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H153" s="585">
         <v>6000</v>
@@ -39028,16 +39028,16 @@
       <c r="CY153" s="312"/>
       <c r="CZ153" s="126"/>
       <c r="DA153" s="440">
-        <f>SUM(H153:CZ153)</f>
+        <f t="shared" si="4"/>
         <v>57000</v>
       </c>
       <c r="DB153" s="440"/>
       <c r="DC153" s="553">
-        <f>SUM(D153-DA153)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD153" s="506" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="DE153" s="554">
         <f>SUM(Táblázat2[[#This Row],[SZÉP szállás 1 ]]+Táblázat2[[#This Row],[SZÉP-szálláshely]]+Táblázat2[[#This Row],[SZÉP-szálláshely3]]+Táblázat2[[#This Row],[SZÉP-szálláshely 4]]+Táblázat2[[#This Row],[SZÉP-szálláshely 5]]+Táblázat2[[#This Row],[SZÉP-szálláshely 6]]+Táblázat2[[#This Row],[SZÉP-szálláshely 7]]+Táblázat2[[#This Row],[SZÉP-szálláshely 8]]+Táblázat2[[#This Row],[SZÉP-szálláshely 9]]+Táblázat2[[#This Row],[SZÉP-szálláshely 10]]+Táblázat2[[#This Row],[SZÉP-szálláshely 11]]+Táblázat2[[#This Row],[SZÉP-szálláshely 12]])</f>
@@ -39054,7 +39054,7 @@
     </row>
     <row r="154" spans="1:111" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="415" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B154" s="40"/>
       <c r="C154" s="462">
@@ -39065,10 +39065,10 @@
       </c>
       <c r="E154" s="59"/>
       <c r="F154" s="491" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G154" s="205" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H154" s="143"/>
       <c r="I154" s="333"/>
@@ -39172,12 +39172,12 @@
       <c r="CY154" s="311"/>
       <c r="CZ154" s="125"/>
       <c r="DA154" s="424">
-        <f>SUM(H154:CZ154)</f>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="DB154" s="424"/>
       <c r="DC154" s="44">
-        <f>SUM(D154-DA154)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD154" s="429"/>
@@ -39196,7 +39196,7 @@
     </row>
     <row r="155" spans="1:111" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="720" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B155" s="775">
         <v>8411472736</v>
@@ -39209,10 +39209,10 @@
       </c>
       <c r="E155" s="270"/>
       <c r="F155" s="563" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G155" s="292" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H155" s="683">
         <v>8000</v>
@@ -39360,12 +39360,12 @@
       <c r="CY155" s="326"/>
       <c r="CZ155" s="258"/>
       <c r="DA155" s="453">
-        <f>SUM(H155:CZ155)</f>
+        <f t="shared" si="4"/>
         <v>132000</v>
       </c>
       <c r="DB155" s="453"/>
       <c r="DC155" s="632">
-        <f>SUM(D155-DA155)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD155" s="441"/>
@@ -39384,7 +39384,7 @@
     </row>
     <row r="156" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="634" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B156" s="768">
         <v>8353452944</v>
@@ -39397,10 +39397,10 @@
       </c>
       <c r="E156" s="592"/>
       <c r="F156" s="636" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G156" s="203" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H156" s="624">
         <v>7000</v>
@@ -39546,12 +39546,12 @@
       </c>
       <c r="CZ156" s="126"/>
       <c r="DA156" s="440">
-        <f>SUM(H156:CZ156)</f>
+        <f t="shared" si="4"/>
         <v>128000</v>
       </c>
       <c r="DB156" s="440"/>
       <c r="DC156" s="553">
-        <f>SUM(D156-DA156)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD156" s="441"/>
@@ -39570,7 +39570,7 @@
     </row>
     <row r="157" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="408" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B157" s="45">
         <v>8383012179</v>
@@ -39583,10 +39583,10 @@
       </c>
       <c r="E157" s="33"/>
       <c r="F157" s="191" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G157" s="202" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H157" s="141"/>
       <c r="I157" s="332"/>
@@ -39698,12 +39698,12 @@
       <c r="CY157" s="311"/>
       <c r="CZ157" s="125"/>
       <c r="DA157" s="424">
-        <f>SUM(H157:CZ157)</f>
+        <f t="shared" si="4"/>
         <v>132000</v>
       </c>
       <c r="DB157" s="424"/>
       <c r="DC157" s="44">
-        <f>SUM(D157-DA157)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD157" s="429"/>
@@ -39722,7 +39722,7 @@
     </row>
     <row r="158" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="406" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B158" s="45"/>
       <c r="C158" s="432">
@@ -39735,10 +39735,10 @@
         <v>4</v>
       </c>
       <c r="F158" s="481" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G158" s="205" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H158" s="141"/>
       <c r="I158" s="332"/>
@@ -39842,12 +39842,12 @@
       <c r="CY158" s="311"/>
       <c r="CZ158" s="125"/>
       <c r="DA158" s="424">
-        <f>SUM(H158:CZ158)</f>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="DB158" s="424"/>
       <c r="DC158" s="44">
-        <f>SUM(D158-DA158)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD158" s="429"/>
@@ -39866,7 +39866,7 @@
     </row>
     <row r="159" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="505" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B159" s="54"/>
       <c r="C159" s="436">
@@ -39877,10 +39877,10 @@
       </c>
       <c r="E159" s="438"/>
       <c r="F159" s="191" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G159" s="202" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H159" s="143">
         <v>6000</v>
@@ -40002,12 +40002,12 @@
       <c r="CY159" s="311"/>
       <c r="CZ159" s="125"/>
       <c r="DA159" s="424">
-        <f>SUM(H159:CZ159)</f>
+        <f t="shared" si="4"/>
         <v>66000</v>
       </c>
       <c r="DB159" s="424"/>
       <c r="DC159" s="44">
-        <f>SUM(D159-DA159)</f>
+        <f t="shared" si="5"/>
         <v>6000</v>
       </c>
       <c r="DD159" s="429"/>
@@ -40026,7 +40026,7 @@
     </row>
     <row r="160" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="417" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B160" s="770"/>
       <c r="C160" s="700">
@@ -40037,10 +40037,10 @@
       </c>
       <c r="E160" s="33"/>
       <c r="F160" s="197" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G160" s="204" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H160" s="141">
         <v>7000</v>
@@ -40164,12 +40164,12 @@
       <c r="CY160" s="312"/>
       <c r="CZ160" s="126"/>
       <c r="DA160" s="440">
-        <f>SUM(H160:CZ160)</f>
+        <f t="shared" si="4"/>
         <v>84000</v>
       </c>
       <c r="DB160" s="440"/>
       <c r="DC160" s="553">
-        <f>SUM(D160-DA160)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD160" s="441"/>
@@ -40188,7 +40188,7 @@
     </row>
     <row r="161" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="418" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B161" s="768">
         <v>8326574198</v>
@@ -40201,10 +40201,10 @@
       </c>
       <c r="E161" s="592"/>
       <c r="F161" s="198" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G161" s="201" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H161" s="585">
         <v>8000</v>
@@ -40352,12 +40352,12 @@
       </c>
       <c r="CZ161" s="126"/>
       <c r="DA161" s="440">
-        <f>SUM(H161:CZ161)</f>
+        <f t="shared" si="4"/>
         <v>132000</v>
       </c>
       <c r="DB161" s="440"/>
       <c r="DC161" s="553">
-        <f>SUM(D161-DA161)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD161" s="441"/>
@@ -40376,7 +40376,7 @@
     </row>
     <row r="162" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="406" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B162" s="45"/>
       <c r="C162" s="69">
@@ -40387,10 +40387,10 @@
       </c>
       <c r="E162" s="33"/>
       <c r="F162" s="308" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G162" s="201" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H162" s="141"/>
       <c r="I162" s="332"/>
@@ -40492,12 +40492,12 @@
       <c r="CY162" s="320"/>
       <c r="CZ162" s="130"/>
       <c r="DA162" s="424">
-        <f>SUM(H162:CZ162)</f>
+        <f t="shared" si="4"/>
         <v>6000</v>
       </c>
       <c r="DB162" s="424"/>
       <c r="DC162" s="44">
-        <f>SUM(D162-DA162)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD162" s="429"/>
@@ -40516,7 +40516,7 @@
     </row>
     <row r="163" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="594" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B163" s="771">
         <v>8369881580</v>
@@ -40529,10 +40529,10 @@
       </c>
       <c r="E163" s="33"/>
       <c r="F163" s="194" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G163" s="204" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H163" s="141">
         <v>5300</v>
@@ -40680,12 +40680,12 @@
       <c r="CY163" s="312"/>
       <c r="CZ163" s="126"/>
       <c r="DA163" s="440">
-        <f>SUM(H163:CZ163)</f>
+        <f t="shared" si="4"/>
         <v>144000</v>
       </c>
       <c r="DB163" s="440"/>
       <c r="DC163" s="553">
-        <f>SUM(D163-DA163)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD163" s="441"/>
@@ -40704,7 +40704,7 @@
     </row>
     <row r="164" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="786" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B164" s="776"/>
       <c r="C164" s="672">
@@ -40715,10 +40715,10 @@
       </c>
       <c r="E164" s="682"/>
       <c r="F164" s="495" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G164" s="674" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H164" s="683">
         <v>6000</v>
@@ -40840,12 +40840,12 @@
       <c r="CY164" s="326"/>
       <c r="CZ164" s="258"/>
       <c r="DA164" s="453">
-        <f>SUM(H164:CZ164)</f>
+        <f t="shared" si="4"/>
         <v>62000</v>
       </c>
       <c r="DB164" s="453"/>
       <c r="DC164" s="632">
-        <f>SUM(D164-DA164)</f>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="DD164" s="441"/>
@@ -40864,7 +40864,7 @@
     </row>
     <row r="165" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="411" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B165" s="775">
         <v>8425482291</v>
@@ -40877,10 +40877,10 @@
       </c>
       <c r="E165" s="270"/>
       <c r="F165" s="289" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G165" s="292" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H165" s="276">
         <v>8000</v>
@@ -41028,12 +41028,12 @@
         <v>3000</v>
       </c>
       <c r="DA165" s="453">
-        <f>SUM(H165:CZ165)</f>
+        <f t="shared" si="4"/>
         <v>132000</v>
       </c>
       <c r="DB165" s="453"/>
       <c r="DC165" s="632">
-        <f>SUM(D165-DA165)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD165" s="441"/>
@@ -41052,7 +41052,7 @@
     </row>
     <row r="166" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="407" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B166" s="45"/>
       <c r="C166" s="57">
@@ -41062,13 +41062,13 @@
         <v>22500</v>
       </c>
       <c r="E166" s="33" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F166" s="306" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G166" s="201" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H166" s="141"/>
       <c r="I166" s="332"/>
@@ -41178,16 +41178,16 @@
       <c r="CY166" s="311"/>
       <c r="CZ166" s="125"/>
       <c r="DA166" s="424">
-        <f>SUM(H166:CZ166)</f>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="DB166" s="424"/>
       <c r="DC166" s="44">
-        <f>SUM(D166-DA166)</f>
+        <f t="shared" si="5"/>
         <v>-7500</v>
       </c>
       <c r="DD166" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="DE166" s="504">
         <f>SUM(Táblázat2[[#This Row],[SZÉP szállás 1 ]]+Táblázat2[[#This Row],[SZÉP-szálláshely]]+Táblázat2[[#This Row],[SZÉP-szálláshely3]]+Táblázat2[[#This Row],[SZÉP-szálláshely 4]]+Táblázat2[[#This Row],[SZÉP-szálláshely 5]]+Táblázat2[[#This Row],[SZÉP-szálláshely 6]]+Táblázat2[[#This Row],[SZÉP-szálláshely 7]]+Táblázat2[[#This Row],[SZÉP-szálláshely 8]]+Táblázat2[[#This Row],[SZÉP-szálláshely 9]]+Táblázat2[[#This Row],[SZÉP-szálláshely 10]]+Táblázat2[[#This Row],[SZÉP-szálláshely 11]]+Táblázat2[[#This Row],[SZÉP-szálláshely 12]])</f>
@@ -41204,7 +41204,7 @@
     </row>
     <row r="167" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="631" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B167" s="773"/>
       <c r="C167" s="455">
@@ -41217,10 +41217,10 @@
         <v>8</v>
       </c>
       <c r="F167" s="495" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G167" s="291" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H167" s="276">
         <v>5400</v>
@@ -41344,12 +41344,12 @@
       <c r="CY167" s="326"/>
       <c r="CZ167" s="258"/>
       <c r="DA167" s="453">
-        <f>SUM(H167:CZ167)</f>
+        <f t="shared" si="4"/>
         <v>81000</v>
       </c>
       <c r="DB167" s="453"/>
       <c r="DC167" s="632">
-        <f>SUM(D167-DA167)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD167" s="441"/>
@@ -41368,7 +41368,7 @@
     </row>
     <row r="168" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="634" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B168" s="768"/>
       <c r="C168" s="467">
@@ -41379,10 +41379,10 @@
       </c>
       <c r="E168" s="33"/>
       <c r="F168" s="636" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G168" s="201" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H168" s="141">
         <v>5500</v>
@@ -41508,12 +41508,12 @@
       <c r="CY168" s="312"/>
       <c r="CZ168" s="126"/>
       <c r="DA168" s="440">
-        <f>SUM(H168:CZ168)</f>
+        <f t="shared" si="4"/>
         <v>144000</v>
       </c>
       <c r="DB168" s="440"/>
       <c r="DC168" s="553">
-        <f>SUM(D168-DA168)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD168" s="441"/>
@@ -41532,7 +41532,7 @@
     </row>
     <row r="169" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="418" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B169" s="771">
         <v>8401451310</v>
@@ -41545,10 +41545,10 @@
       </c>
       <c r="E169" s="33"/>
       <c r="F169" s="198" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G169" s="201" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H169" s="141">
         <v>8000</v>
@@ -41694,12 +41694,12 @@
       <c r="CY169" s="312"/>
       <c r="CZ169" s="126"/>
       <c r="DA169" s="440">
-        <f>SUM(H169:CZ169)</f>
+        <f t="shared" si="4"/>
         <v>144000</v>
       </c>
       <c r="DB169" s="440"/>
       <c r="DC169" s="553">
-        <f>SUM(D169-DA169)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD169" s="441"/>
@@ -41718,7 +41718,7 @@
     </row>
     <row r="170" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="412" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B170" s="253"/>
       <c r="C170" s="442">
@@ -41731,10 +41731,10 @@
         <v>2</v>
       </c>
       <c r="F170" s="287" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G170" s="293" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H170" s="277"/>
       <c r="I170" s="331"/>
@@ -41846,12 +41846,12 @@
       <c r="CY170" s="325"/>
       <c r="CZ170" s="248"/>
       <c r="DA170" s="425">
-        <f>SUM(H170:CZ170)</f>
+        <f t="shared" si="4"/>
         <v>18000</v>
       </c>
       <c r="DB170" s="425"/>
       <c r="DC170" s="250">
-        <f>SUM(D170-DA170)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD170" s="429"/>
@@ -41870,7 +41870,7 @@
     </row>
     <row r="171" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="408" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B171" s="54"/>
       <c r="C171" s="436">
@@ -41883,10 +41883,10 @@
         <v>2</v>
       </c>
       <c r="F171" s="484" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G171" s="202" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H171" s="145"/>
       <c r="I171" s="331"/>
@@ -41990,12 +41990,12 @@
       <c r="CY171" s="311"/>
       <c r="CZ171" s="125"/>
       <c r="DA171" s="424">
-        <f>SUM(H171:CZ171)</f>
+        <f t="shared" si="4"/>
         <v>6000</v>
       </c>
       <c r="DB171" s="424"/>
       <c r="DC171" s="44">
-        <f>SUM(D171-DA171)</f>
+        <f t="shared" si="5"/>
         <v>-3000</v>
       </c>
       <c r="DD171" s="429"/>
@@ -42014,7 +42014,7 @@
     </row>
     <row r="172" spans="1:111" s="430" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="417" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B172" s="771">
         <v>8403562136</v>
@@ -42027,10 +42027,10 @@
       </c>
       <c r="E172" s="33"/>
       <c r="F172" s="197" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G172" s="204" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H172" s="141">
         <v>8000</v>
@@ -42158,12 +42158,12 @@
       </c>
       <c r="CZ172" s="126"/>
       <c r="DA172" s="440">
-        <f>SUM(H172:CZ172)</f>
+        <f t="shared" si="4"/>
         <v>144000</v>
       </c>
       <c r="DB172" s="440"/>
       <c r="DC172" s="553">
-        <f>SUM(D172-DA172)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD172" s="441"/>
@@ -42182,7 +42182,7 @@
     </row>
     <row r="173" spans="1:111" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="417" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B173" s="771"/>
       <c r="C173" s="451">
@@ -42192,13 +42192,13 @@
         <v>47000</v>
       </c>
       <c r="E173" s="536" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F173" s="197" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G173" s="204" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H173" s="141">
         <v>6000</v>
@@ -42322,12 +42322,12 @@
       <c r="CY173" s="312"/>
       <c r="CZ173" s="126"/>
       <c r="DA173" s="440">
-        <f>SUM(H173:CZ173)</f>
+        <f t="shared" si="4"/>
         <v>47000</v>
       </c>
       <c r="DB173" s="440"/>
       <c r="DC173" s="553">
-        <f>SUM(D173-DA173)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD173" s="441"/>
@@ -42346,7 +42346,7 @@
     </row>
     <row r="174" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="406" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B174" s="45"/>
       <c r="C174" s="432">
@@ -42357,10 +42357,10 @@
       </c>
       <c r="E174" s="33"/>
       <c r="F174" s="481" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G174" s="205" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H174" s="141"/>
       <c r="I174" s="332"/>
@@ -42474,12 +42474,12 @@
       <c r="CY174" s="311"/>
       <c r="CZ174" s="125"/>
       <c r="DA174" s="424">
-        <f>SUM(H174:CZ174)</f>
+        <f t="shared" si="4"/>
         <v>42000</v>
       </c>
       <c r="DB174" s="424"/>
       <c r="DC174" s="44">
-        <f>SUM(D174-DA174)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD174" s="429"/>
@@ -42498,7 +42498,7 @@
     </row>
     <row r="175" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="417" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B175" s="770"/>
       <c r="C175" s="451">
@@ -42509,10 +42509,10 @@
       </c>
       <c r="E175" s="583"/>
       <c r="F175" s="197" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G175" s="203" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H175" s="624">
         <v>7000</v>
@@ -42636,12 +42636,12 @@
       <c r="CY175" s="312"/>
       <c r="CZ175" s="126"/>
       <c r="DA175" s="440">
-        <f>SUM(H175:CZ175)</f>
+        <f t="shared" si="4"/>
         <v>84000</v>
       </c>
       <c r="DB175" s="440"/>
       <c r="DC175" s="553">
-        <f>SUM(D175-DA175)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD175" s="441"/>
@@ -42660,7 +42660,7 @@
     </row>
     <row r="176" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="418" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B176" s="768"/>
       <c r="C176" s="467">
@@ -42673,10 +42673,10 @@
         <v>4</v>
       </c>
       <c r="F176" s="198" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G176" s="204" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H176" s="141"/>
       <c r="I176" s="332"/>
@@ -42792,12 +42792,12 @@
       <c r="CY176" s="312"/>
       <c r="CZ176" s="126"/>
       <c r="DA176" s="440">
-        <f>SUM(H176:CZ176)</f>
+        <f t="shared" si="4"/>
         <v>72000</v>
       </c>
       <c r="DB176" s="440"/>
       <c r="DC176" s="553">
-        <f>SUM(D176-DA176)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD176" s="441"/>
@@ -42816,7 +42816,7 @@
     </row>
     <row r="177" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="418" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B177" s="771">
         <v>8377263904</v>
@@ -42829,10 +42829,10 @@
       </c>
       <c r="E177" s="33"/>
       <c r="F177" s="198" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G177" s="204" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H177" s="141">
         <v>8000</v>
@@ -42980,12 +42980,12 @@
       </c>
       <c r="CZ177" s="126"/>
       <c r="DA177" s="440">
-        <f>SUM(H177:CZ177)</f>
+        <f t="shared" si="4"/>
         <v>132000</v>
       </c>
       <c r="DB177" s="440"/>
       <c r="DC177" s="553">
-        <f>SUM(D177-DA177)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD177" s="441"/>
@@ -43004,7 +43004,7 @@
     </row>
     <row r="178" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="418" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B178" s="768"/>
       <c r="C178" s="467">
@@ -43015,10 +43015,10 @@
       </c>
       <c r="E178" s="33"/>
       <c r="F178" s="198" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G178" s="201" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H178" s="141"/>
       <c r="I178" s="332"/>
@@ -43138,12 +43138,12 @@
       <c r="CY178" s="312"/>
       <c r="CZ178" s="126"/>
       <c r="DA178" s="440">
-        <f>SUM(H178:CZ178)</f>
+        <f t="shared" si="4"/>
         <v>132000</v>
       </c>
       <c r="DB178" s="440"/>
       <c r="DC178" s="553">
-        <f>SUM(D178-DA178)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD178" s="441"/>
@@ -43162,7 +43162,7 @@
     </row>
     <row r="179" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="733" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B179" s="770"/>
       <c r="C179" s="451">
@@ -43175,10 +43175,10 @@
         <v>4</v>
       </c>
       <c r="F179" s="199" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G179" s="203" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H179" s="585">
         <v>3500</v>
@@ -43302,12 +43302,12 @@
       <c r="CY179" s="312"/>
       <c r="CZ179" s="126"/>
       <c r="DA179" s="440">
-        <f>SUM(H179:CZ179)</f>
+        <f t="shared" si="4"/>
         <v>42000</v>
       </c>
       <c r="DB179" s="440"/>
       <c r="DC179" s="553">
-        <f>SUM(D179-DA179)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD179" s="441"/>
@@ -43326,7 +43326,7 @@
     </row>
     <row r="180" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="408" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B180" s="45">
         <v>8429433341</v>
@@ -43341,10 +43341,10 @@
         <v>6</v>
       </c>
       <c r="F180" s="191" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G180" s="202" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H180" s="141"/>
       <c r="I180" s="332"/>
@@ -43456,12 +43456,12 @@
       <c r="CY180" s="311"/>
       <c r="CZ180" s="125"/>
       <c r="DA180" s="424">
-        <f>SUM(H180:CZ180)</f>
+        <f t="shared" si="4"/>
         <v>99000</v>
       </c>
       <c r="DB180" s="424"/>
       <c r="DC180" s="44">
-        <f>SUM(D180-DA180)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD180" s="429"/>
@@ -43480,7 +43480,7 @@
     </row>
     <row r="181" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="417" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B181" s="770">
         <v>8422282011</v>
@@ -43493,10 +43493,10 @@
       </c>
       <c r="E181" s="583"/>
       <c r="F181" s="197" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G181" s="201" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H181" s="276">
         <v>8000</v>
@@ -43644,12 +43644,12 @@
         <v>3000</v>
       </c>
       <c r="DA181" s="440">
-        <f>SUM(H181:CZ181)</f>
+        <f t="shared" si="4"/>
         <v>132000</v>
       </c>
       <c r="DB181" s="440"/>
       <c r="DC181" s="553">
-        <f>SUM(D181-DA181)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD181" s="441"/>
@@ -43668,7 +43668,7 @@
     </row>
     <row r="182" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="406" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B182" s="45">
         <v>8415162898</v>
@@ -43681,10 +43681,10 @@
       </c>
       <c r="E182" s="33"/>
       <c r="F182" s="195" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G182" s="205" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H182" s="141">
         <v>8000</v>
@@ -43826,16 +43826,16 @@
       </c>
       <c r="CZ182" s="125"/>
       <c r="DA182" s="424">
-        <f>SUM(H182:CZ182)</f>
+        <f t="shared" si="4"/>
         <v>124000</v>
       </c>
       <c r="DB182" s="424"/>
       <c r="DC182" s="44">
-        <f>SUM(D182-DA182)</f>
+        <f t="shared" si="5"/>
         <v>20000</v>
       </c>
       <c r="DD182" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="DE182" s="504">
         <f>SUM(Táblázat2[[#This Row],[SZÉP szállás 1 ]]+Táblázat2[[#This Row],[SZÉP-szálláshely]]+Táblázat2[[#This Row],[SZÉP-szálláshely3]]+Táblázat2[[#This Row],[SZÉP-szálláshely 4]]+Táblázat2[[#This Row],[SZÉP-szálláshely 5]]+Táblázat2[[#This Row],[SZÉP-szálláshely 6]]+Táblázat2[[#This Row],[SZÉP-szálláshely 7]]+Táblázat2[[#This Row],[SZÉP-szálláshely 8]]+Táblázat2[[#This Row],[SZÉP-szálláshely 9]]+Táblázat2[[#This Row],[SZÉP-szálláshely 10]]+Táblázat2[[#This Row],[SZÉP-szálláshely 11]]+Táblázat2[[#This Row],[SZÉP-szálláshely 12]])</f>
@@ -43852,7 +43852,7 @@
     </row>
     <row r="183" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="411" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B183" s="778"/>
       <c r="C183" s="794">
@@ -43863,10 +43863,10 @@
       </c>
       <c r="E183" s="270"/>
       <c r="F183" s="495" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G183" s="291" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H183" s="276">
         <v>7000</v>
@@ -43998,12 +43998,12 @@
       <c r="CY183" s="326"/>
       <c r="CZ183" s="258"/>
       <c r="DA183" s="453">
-        <f>SUM(H183:CZ183)</f>
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
       <c r="DB183" s="453"/>
       <c r="DC183" s="632">
-        <f>SUM(D183-DA183)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD183" s="441"/>
@@ -44022,7 +44022,7 @@
     </row>
     <row r="184" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="721" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B184" s="775"/>
       <c r="C184" s="672">
@@ -44035,10 +44035,10 @@
         <v>8</v>
       </c>
       <c r="F184" s="722" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G184" s="723" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H184" s="567"/>
       <c r="I184" s="542"/>
@@ -44172,16 +44172,16 @@
         <v>4300</v>
       </c>
       <c r="DA184" s="599">
-        <f>SUM(H184:CZ184)</f>
+        <f t="shared" si="4"/>
         <v>106400</v>
       </c>
       <c r="DB184" s="599"/>
       <c r="DC184" s="732">
-        <f>SUM(D184-DA184)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD184" s="506" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="DE184" s="554">
         <f>SUM(Táblázat2[[#This Row],[SZÉP szállás 1 ]]+Táblázat2[[#This Row],[SZÉP-szálláshely]]+Táblázat2[[#This Row],[SZÉP-szálláshely3]]+Táblázat2[[#This Row],[SZÉP-szálláshely 4]]+Táblázat2[[#This Row],[SZÉP-szálláshely 5]]+Táblázat2[[#This Row],[SZÉP-szálláshely 6]]+Táblázat2[[#This Row],[SZÉP-szálláshely 7]]+Táblázat2[[#This Row],[SZÉP-szálláshely 8]]+Táblázat2[[#This Row],[SZÉP-szálláshely 9]]+Táblázat2[[#This Row],[SZÉP-szálláshely 10]]+Táblázat2[[#This Row],[SZÉP-szálláshely 11]]+Táblázat2[[#This Row],[SZÉP-szálláshely 12]])</f>
@@ -44198,7 +44198,7 @@
     </row>
     <row r="185" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="734" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B185" s="781">
         <v>8323742057</v>
@@ -44213,10 +44213,10 @@
         <v>6</v>
       </c>
       <c r="F185" s="736" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G185" s="737" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H185" s="568">
         <v>8000</v>
@@ -44344,12 +44344,12 @@
       </c>
       <c r="CZ185" s="747"/>
       <c r="DA185" s="740">
-        <f>SUM(H185:CZ185)</f>
+        <f t="shared" si="4"/>
         <v>108000</v>
       </c>
       <c r="DB185" s="740"/>
       <c r="DC185" s="749">
-        <f>SUM(D185-DA185)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD185" s="441"/>
@@ -44368,7 +44368,7 @@
     </row>
     <row r="186" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="411" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B186" s="778">
         <v>8381843146</v>
@@ -44383,10 +44383,10 @@
         <v>6</v>
       </c>
       <c r="F186" s="495" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G186" s="291" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H186" s="276">
         <v>8000</v>
@@ -44534,12 +44534,12 @@
       </c>
       <c r="CZ186" s="258"/>
       <c r="DA186" s="453">
-        <f>SUM(H186:CZ186)</f>
+        <f t="shared" si="4"/>
         <v>108000</v>
       </c>
       <c r="DB186" s="453"/>
       <c r="DC186" s="632">
-        <f>SUM(D186-DA186)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD186" s="441"/>
@@ -44558,7 +44558,7 @@
     </row>
     <row r="187" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="416" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B187" s="776">
         <v>8382081444</v>
@@ -44571,10 +44571,10 @@
       </c>
       <c r="E187" s="270"/>
       <c r="F187" s="495" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G187" s="674" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H187" s="276">
         <v>8000</v>
@@ -44710,12 +44710,12 @@
       </c>
       <c r="CZ187" s="258"/>
       <c r="DA187" s="453">
-        <f>SUM(H187:CZ187)</f>
+        <f t="shared" si="4"/>
         <v>132000</v>
       </c>
       <c r="DB187" s="453"/>
       <c r="DC187" s="632">
-        <f>SUM(D187-DA187)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD187" s="441"/>
@@ -44734,7 +44734,7 @@
     </row>
     <row r="188" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="416" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B188" s="776"/>
       <c r="C188" s="672">
@@ -44745,10 +44745,10 @@
       </c>
       <c r="E188" s="682"/>
       <c r="F188" s="495" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G188" s="674" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H188" s="683">
         <v>6000</v>
@@ -44872,12 +44872,12 @@
       <c r="CY188" s="326"/>
       <c r="CZ188" s="258"/>
       <c r="DA188" s="453">
-        <f>SUM(H188:CZ188)</f>
+        <f t="shared" si="4"/>
         <v>72000</v>
       </c>
       <c r="DB188" s="453"/>
       <c r="DC188" s="632">
-        <f>SUM(D188-DA188)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD188" s="441"/>
@@ -44896,7 +44896,7 @@
     </row>
     <row r="189" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="407" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B189" s="38"/>
       <c r="C189" s="433">
@@ -44909,10 +44909,10 @@
         <v>4</v>
       </c>
       <c r="F189" s="306" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G189" s="204" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H189" s="141"/>
       <c r="I189" s="332" t="s">
@@ -45016,12 +45016,12 @@
       <c r="CY189" s="311"/>
       <c r="CZ189" s="125"/>
       <c r="DA189" s="424">
-        <f>SUM(H189:CZ189)</f>
+        <f t="shared" si="4"/>
         <v>6000</v>
       </c>
       <c r="DB189" s="424"/>
       <c r="DC189" s="44">
-        <f>SUM(D189-DA189)</f>
+        <f t="shared" si="5"/>
         <v>-3000</v>
       </c>
       <c r="DD189" s="429"/>
@@ -45040,7 +45040,7 @@
     </row>
     <row r="190" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="413" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B190" s="774"/>
       <c r="C190" s="633">
@@ -45051,10 +45051,10 @@
       </c>
       <c r="E190" s="33"/>
       <c r="F190" s="193" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G190" s="204" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H190" s="141">
         <v>6000</v>
@@ -45178,12 +45178,12 @@
       <c r="CY190" s="312"/>
       <c r="CZ190" s="126"/>
       <c r="DA190" s="440">
-        <f>SUM(H190:CZ190)</f>
+        <f t="shared" si="4"/>
         <v>76000</v>
       </c>
       <c r="DB190" s="440"/>
       <c r="DC190" s="553">
-        <f>SUM(D190-DA190)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD190" s="441"/>
@@ -45202,7 +45202,7 @@
     </row>
     <row r="191" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="417" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B191" s="770"/>
       <c r="C191" s="451">
@@ -45215,10 +45215,10 @@
         <v>4</v>
       </c>
       <c r="F191" s="307" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G191" s="584" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H191" s="141"/>
       <c r="I191" s="332"/>
@@ -45336,12 +45336,12 @@
       <c r="CY191" s="312"/>
       <c r="CZ191" s="126"/>
       <c r="DA191" s="440">
-        <f>SUM(H191:CZ191)</f>
+        <f t="shared" si="4"/>
         <v>27000</v>
       </c>
       <c r="DB191" s="440"/>
       <c r="DC191" s="553">
-        <f>SUM(D191-DA191)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD191" s="441"/>
@@ -45360,7 +45360,7 @@
     </row>
     <row r="192" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="631" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B192" s="773">
         <v>8337024119</v>
@@ -45373,10 +45373,10 @@
       </c>
       <c r="E192" s="270"/>
       <c r="F192" s="288" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G192" s="291" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H192" s="141">
         <v>8000</v>
@@ -45524,12 +45524,12 @@
       </c>
       <c r="CZ192" s="258"/>
       <c r="DA192" s="453">
-        <f>SUM(H192:CZ192)</f>
+        <f t="shared" si="4"/>
         <v>132000</v>
       </c>
       <c r="DB192" s="453"/>
       <c r="DC192" s="632">
-        <f>SUM(D192-DA192)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD192" s="441"/>
@@ -45548,7 +45548,7 @@
     </row>
     <row r="193" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="418" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B193" s="768">
         <v>8417704469</v>
@@ -45561,10 +45561,10 @@
       </c>
       <c r="E193" s="33"/>
       <c r="F193" s="198" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G193" s="204" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H193" s="141">
         <v>8000</v>
@@ -45712,12 +45712,12 @@
       <c r="CY193" s="312"/>
       <c r="CZ193" s="126"/>
       <c r="DA193" s="440">
-        <f>SUM(H193:CZ193)</f>
+        <f t="shared" si="4"/>
         <v>132000</v>
       </c>
       <c r="DB193" s="440"/>
       <c r="DC193" s="553">
-        <f>SUM(D193-DA193)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD193" s="441"/>
@@ -45736,7 +45736,7 @@
     </row>
     <row r="194" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="417" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B194" s="770"/>
       <c r="C194" s="451">
@@ -45747,10 +45747,10 @@
       </c>
       <c r="E194" s="583"/>
       <c r="F194" s="197" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G194" s="584" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H194" s="585">
         <v>6000</v>
@@ -45874,12 +45874,12 @@
       <c r="CY194" s="312"/>
       <c r="CZ194" s="126"/>
       <c r="DA194" s="440">
-        <f>SUM(H194:CZ194)</f>
+        <f t="shared" si="4"/>
         <v>72000</v>
       </c>
       <c r="DB194" s="440"/>
       <c r="DC194" s="553">
-        <f>SUM(D194-DA194)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="DD194" s="441"/>
@@ -45898,7 +45898,7 @@
     </row>
     <row r="195" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="413" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B195" s="774"/>
       <c r="C195" s="633">
@@ -45909,10 +45909,10 @@
       </c>
       <c r="E195" s="688"/>
       <c r="F195" s="193" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G195" s="201" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H195" s="141">
         <v>7000</v>
@@ -46036,12 +46036,12 @@
       <c r="CY195" s="312"/>
       <c r="CZ195" s="126"/>
       <c r="DA195" s="440">
-        <f>SUM(H195:CZ195)</f>
+        <f t="shared" ref="DA195:DA258" si="6">SUM(H195:CZ195)</f>
         <v>84000</v>
       </c>
       <c r="DB195" s="440"/>
       <c r="DC195" s="553">
-        <f>SUM(D195-DA195)</f>
+        <f t="shared" ref="DC195:DC212" si="7">SUM(D195-DA195)</f>
         <v>0</v>
       </c>
       <c r="DD195" s="441"/>
@@ -46060,7 +46060,7 @@
     </row>
     <row r="196" spans="1:111" s="430" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="634" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B196" s="771">
         <v>8396161291</v>
@@ -46073,10 +46073,10 @@
       </c>
       <c r="E196" s="33"/>
       <c r="F196" s="636" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G196" s="201" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H196" s="141">
         <v>8000</v>
@@ -46224,12 +46224,12 @@
       </c>
       <c r="CZ196" s="126"/>
       <c r="DA196" s="440">
-        <f>SUM(H196:CZ196)</f>
+        <f t="shared" si="6"/>
         <v>144000</v>
       </c>
       <c r="DB196" s="440"/>
       <c r="DC196" s="553">
-        <f>SUM(D196-DA196)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DD196" s="441"/>
@@ -46248,7 +46248,7 @@
     </row>
     <row r="197" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="407" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B197" s="68"/>
       <c r="C197" s="433">
@@ -46259,10 +46259,10 @@
       </c>
       <c r="E197" s="70"/>
       <c r="F197" s="306" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G197" s="201" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H197" s="143"/>
       <c r="I197" s="333"/>
@@ -46372,12 +46372,12 @@
       <c r="CY197" s="311"/>
       <c r="CZ197" s="125"/>
       <c r="DA197" s="424">
-        <f>SUM(H197:CZ197)</f>
+        <f t="shared" si="6"/>
         <v>30000</v>
       </c>
       <c r="DB197" s="424"/>
       <c r="DC197" s="44">
-        <f>SUM(D197-DA197)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DD197" s="429"/>
@@ -46396,7 +46396,7 @@
     </row>
     <row r="198" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="416" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B198" s="776"/>
       <c r="C198" s="672">
@@ -46407,10 +46407,10 @@
       </c>
       <c r="E198" s="682"/>
       <c r="F198" s="495" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G198" s="674" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H198" s="276">
         <v>6000</v>
@@ -46534,12 +46534,12 @@
       <c r="CY198" s="326"/>
       <c r="CZ198" s="258"/>
       <c r="DA198" s="453">
-        <f>SUM(H198:CZ198)</f>
+        <f t="shared" si="6"/>
         <v>72000</v>
       </c>
       <c r="DB198" s="453"/>
       <c r="DC198" s="632">
-        <f>SUM(D198-DA198)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DD198" s="441"/>
@@ -46558,7 +46558,7 @@
     </row>
     <row r="199" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="417" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B199" s="770"/>
       <c r="C199" s="451">
@@ -46569,10 +46569,10 @@
       </c>
       <c r="E199" s="583"/>
       <c r="F199" s="197" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G199" s="204" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H199" s="624">
         <v>6000</v>
@@ -46696,12 +46696,12 @@
       <c r="CY199" s="312"/>
       <c r="CZ199" s="126"/>
       <c r="DA199" s="440">
-        <f>SUM(H199:CZ199)</f>
+        <f t="shared" si="6"/>
         <v>77000</v>
       </c>
       <c r="DB199" s="440"/>
       <c r="DC199" s="553">
-        <f>SUM(D199-DA199)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DD199" s="441"/>
@@ -46720,7 +46720,7 @@
     </row>
     <row r="200" spans="1:111" s="430" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="415" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B200" s="40"/>
       <c r="C200" s="462">
@@ -46731,10 +46731,10 @@
       </c>
       <c r="E200" s="59"/>
       <c r="F200" s="491" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G200" s="205" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H200" s="143"/>
       <c r="I200" s="333">
@@ -46864,12 +46864,12 @@
       <c r="CY200" s="311"/>
       <c r="CZ200" s="125"/>
       <c r="DA200" s="424">
-        <f>SUM(H200:CZ200)</f>
+        <f t="shared" si="6"/>
         <v>84000</v>
       </c>
       <c r="DB200" s="424"/>
       <c r="DC200" s="44">
-        <f>SUM(D200-DA200)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DD200" s="429"/>
@@ -46888,7 +46888,7 @@
     </row>
     <row r="201" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="417" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B201" s="770"/>
       <c r="C201" s="451">
@@ -46899,10 +46899,10 @@
       </c>
       <c r="E201" s="583"/>
       <c r="F201" s="197" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G201" s="204" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H201" s="141">
         <v>7000</v>
@@ -47026,12 +47026,12 @@
       <c r="CY201" s="312"/>
       <c r="CZ201" s="126"/>
       <c r="DA201" s="440">
-        <f>SUM(H201:CZ201)</f>
+        <f t="shared" si="6"/>
         <v>84000</v>
       </c>
       <c r="DB201" s="440"/>
       <c r="DC201" s="553">
-        <f>SUM(D201-DA201)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DD201" s="441"/>
@@ -47050,7 +47050,7 @@
     </row>
     <row r="202" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="417" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B202" s="770"/>
       <c r="C202" s="467">
@@ -47060,13 +47060,13 @@
         <v>88000</v>
       </c>
       <c r="E202" s="33" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F202" s="486" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G202" s="584" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H202" s="624"/>
       <c r="I202" s="625"/>
@@ -47190,16 +47190,16 @@
       <c r="CY202" s="312"/>
       <c r="CZ202" s="126"/>
       <c r="DA202" s="440">
-        <f>SUM(H202:CZ202)</f>
+        <f t="shared" si="6"/>
         <v>88000</v>
       </c>
       <c r="DB202" s="440"/>
       <c r="DC202" s="553">
-        <f>SUM(D202-DA202)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DD202" s="506" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="DE202" s="554">
         <f>SUM(Táblázat2[[#This Row],[SZÉP szállás 1 ]]+Táblázat2[[#This Row],[SZÉP-szálláshely]]+Táblázat2[[#This Row],[SZÉP-szálláshely3]]+Táblázat2[[#This Row],[SZÉP-szálláshely 4]]+Táblázat2[[#This Row],[SZÉP-szálláshely 5]]+Táblázat2[[#This Row],[SZÉP-szálláshely 6]]+Táblázat2[[#This Row],[SZÉP-szálláshely 7]]+Táblázat2[[#This Row],[SZÉP-szálláshely 8]]+Táblázat2[[#This Row],[SZÉP-szálláshely 9]]+Táblázat2[[#This Row],[SZÉP-szálláshely 10]]+Táblázat2[[#This Row],[SZÉP-szálláshely 11]]+Táblázat2[[#This Row],[SZÉP-szálláshely 12]])</f>
@@ -47216,7 +47216,7 @@
     </row>
     <row r="203" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="750" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B203" s="782"/>
       <c r="C203" s="467">
@@ -47227,10 +47227,10 @@
       </c>
       <c r="E203" s="751"/>
       <c r="F203" s="752" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G203" s="565" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H203" s="753">
         <v>6000</v>
@@ -47354,12 +47354,12 @@
       <c r="CY203" s="762"/>
       <c r="CZ203" s="765"/>
       <c r="DA203" s="760">
-        <f>SUM(H203:CZ203)</f>
+        <f t="shared" si="6"/>
         <v>79000</v>
       </c>
       <c r="DB203" s="760"/>
       <c r="DC203" s="766">
-        <f>SUM(D203-DA203)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DD203" s="441"/>
@@ -47378,7 +47378,7 @@
     </row>
     <row r="204" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="417" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B204" s="770"/>
       <c r="C204" s="467">
@@ -47389,10 +47389,10 @@
       </c>
       <c r="E204" s="33"/>
       <c r="F204" s="198" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G204" s="584" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H204" s="624">
         <v>8000</v>
@@ -47518,12 +47518,12 @@
       <c r="CY204" s="312"/>
       <c r="CZ204" s="126"/>
       <c r="DA204" s="440">
-        <f>SUM(H204:CZ204)</f>
+        <f t="shared" si="6"/>
         <v>108000</v>
       </c>
       <c r="DB204" s="440"/>
       <c r="DC204" s="553">
-        <f>SUM(D204-DA204)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DD204" s="441"/>
@@ -47542,7 +47542,7 @@
     </row>
     <row r="205" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="637" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B205" s="775">
         <v>8359544387</v>
@@ -47555,10 +47555,10 @@
       </c>
       <c r="E205" s="270"/>
       <c r="F205" s="638" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G205" s="292" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H205" s="276">
         <v>8000</v>
@@ -47706,12 +47706,12 @@
       </c>
       <c r="CZ205" s="258"/>
       <c r="DA205" s="453">
-        <f>SUM(H205:CZ205)</f>
+        <f t="shared" si="6"/>
         <v>144000</v>
       </c>
       <c r="DB205" s="453"/>
       <c r="DC205" s="632">
-        <f>SUM(D205-DA205)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DD205" s="441"/>
@@ -47730,7 +47730,7 @@
     </row>
     <row r="206" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="406" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B206" s="45"/>
       <c r="C206" s="432">
@@ -47741,10 +47741,10 @@
       </c>
       <c r="E206" s="33"/>
       <c r="F206" s="481" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G206" s="205" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H206" s="141"/>
       <c r="I206" s="332"/>
@@ -47848,12 +47848,12 @@
       <c r="CY206" s="311"/>
       <c r="CZ206" s="125"/>
       <c r="DA206" s="424">
-        <f>SUM(H206:CZ206)</f>
+        <f t="shared" si="6"/>
         <v>12000</v>
       </c>
       <c r="DB206" s="424"/>
       <c r="DC206" s="44">
-        <f>SUM(D206-DA206)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DD206" s="429"/>
@@ -47872,7 +47872,7 @@
     </row>
     <row r="207" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="784" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B207" s="787">
         <v>8358421516</v>
@@ -47885,10 +47885,10 @@
       </c>
       <c r="E207" s="472"/>
       <c r="F207" s="799" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G207" s="801" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H207" s="220">
         <v>8000</v>
@@ -48036,12 +48036,12 @@
       </c>
       <c r="CZ207" s="823"/>
       <c r="DA207" s="818">
-        <f>SUM(H207:CZ207)</f>
+        <f t="shared" si="6"/>
         <v>144000</v>
       </c>
       <c r="DB207" s="818"/>
       <c r="DC207" s="824">
-        <f>SUM(D207-DA207)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DD207" s="441"/>
@@ -48060,7 +48060,7 @@
     </row>
     <row r="208" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="417" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B208" s="770"/>
       <c r="C208" s="56">
@@ -48071,10 +48071,10 @@
       </c>
       <c r="E208" s="33"/>
       <c r="F208" s="197" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G208" s="201" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H208" s="141">
         <v>7000</v>
@@ -48198,12 +48198,12 @@
       <c r="CY208" s="312"/>
       <c r="CZ208" s="126"/>
       <c r="DA208" s="440">
-        <f>SUM(H208:CZ208)</f>
+        <f t="shared" si="6"/>
         <v>84000</v>
       </c>
       <c r="DB208" s="440"/>
       <c r="DC208" s="553">
-        <f>SUM(D208-DA208)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DD208" s="441"/>
@@ -48222,7 +48222,7 @@
     </row>
     <row r="209" spans="1:111" s="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="417" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B209" s="770"/>
       <c r="C209" s="451">
@@ -48233,10 +48233,10 @@
       </c>
       <c r="E209" s="583"/>
       <c r="F209" s="197" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G209" s="584" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H209" s="624">
         <v>6000</v>
@@ -48360,12 +48360,12 @@
       <c r="CY209" s="312"/>
       <c r="CZ209" s="126"/>
       <c r="DA209" s="440">
-        <f>SUM(H209:CZ209)</f>
+        <f t="shared" si="6"/>
         <v>72000</v>
       </c>
       <c r="DB209" s="440"/>
       <c r="DC209" s="553">
-        <f>SUM(D209-DA209)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DD209" s="441"/>
@@ -48488,12 +48488,12 @@
       <c r="CY210" s="311"/>
       <c r="CZ210" s="233"/>
       <c r="DA210" s="229">
-        <f>SUM(H210:CZ210)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="DB210" s="229"/>
       <c r="DC210" s="240">
-        <f>SUM(D210-DA210)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DD210" s="215"/>
@@ -48616,12 +48616,12 @@
       <c r="CY211" s="311"/>
       <c r="CZ211" s="125"/>
       <c r="DA211" s="47">
-        <f>SUM(H211:CZ211)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="DB211" s="47"/>
       <c r="DC211" s="48">
-        <f>SUM(D211-DA211)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DD211" s="49"/>
@@ -48744,12 +48744,12 @@
       <c r="CY212" s="311"/>
       <c r="CZ212" s="125"/>
       <c r="DA212" s="43">
-        <f>SUM(H212:CZ212)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="DB212" s="64"/>
       <c r="DC212" s="81">
-        <f>SUM(D212-DA212)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="DD212" s="35"/>
@@ -48768,7 +48768,7 @@
     </row>
     <row r="213" spans="1:111" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="507" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B213" s="508"/>
       <c r="C213" s="508"/>
@@ -48892,7 +48892,7 @@
     </row>
     <row r="214" spans="1:111" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="173" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B214" s="174"/>
       <c r="C214" s="175"/>
@@ -48904,403 +48904,403 @@
       <c r="F214" s="178"/>
       <c r="G214" s="188"/>
       <c r="H214" s="146">
-        <f t="shared" ref="H214:AM214" si="0">SUBTOTAL(109,H3:H212)</f>
+        <f t="shared" ref="H214:AM214" si="8">SUBTOTAL(109,H3:H212)</f>
         <v>974600</v>
       </c>
       <c r="I214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>46500</v>
       </c>
       <c r="J214" s="404">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>39000</v>
       </c>
       <c r="K214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>42000</v>
       </c>
       <c r="N214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>135000</v>
       </c>
       <c r="O214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>62000</v>
       </c>
       <c r="P214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>1001600</v>
       </c>
       <c r="Q214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>47400</v>
       </c>
       <c r="R214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>101000</v>
       </c>
       <c r="S214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>14000</v>
       </c>
       <c r="T214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>8000</v>
       </c>
       <c r="U214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>87000</v>
       </c>
       <c r="V214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>264000</v>
       </c>
       <c r="W214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>87000</v>
       </c>
       <c r="X214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>991700</v>
       </c>
       <c r="Y214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>51900</v>
       </c>
       <c r="Z214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>76000</v>
       </c>
       <c r="AA214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>4000</v>
       </c>
       <c r="AC214" s="550">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>103000</v>
       </c>
       <c r="AD214" s="551">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>157000</v>
       </c>
       <c r="AE214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>37000</v>
       </c>
       <c r="AF214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>1024400</v>
       </c>
       <c r="AG214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>51900</v>
       </c>
       <c r="AH214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>76000</v>
       </c>
       <c r="AI214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>11000</v>
       </c>
       <c r="AJ214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK214" s="550">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>94000</v>
       </c>
       <c r="AL214" s="551">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>283000</v>
       </c>
       <c r="AM214" s="146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>111000</v>
       </c>
       <c r="AN214" s="146">
-        <f t="shared" ref="AN214:BS214" si="1">SUBTOTAL(109,AN3:AN212)</f>
+        <f t="shared" ref="AN214:BS214" si="9">SUBTOTAL(109,AN3:AN212)</f>
         <v>1037500</v>
       </c>
       <c r="AO214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>51900</v>
       </c>
       <c r="AP214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>80000</v>
       </c>
       <c r="AQ214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>11000</v>
       </c>
       <c r="AR214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AS214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>45000</v>
       </c>
       <c r="AT214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>173000</v>
       </c>
       <c r="AU214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>46300</v>
       </c>
       <c r="AV214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1065700</v>
       </c>
       <c r="AW214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>51900</v>
       </c>
       <c r="AX214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>80000</v>
       </c>
       <c r="AY214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="AZ214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>497500</v>
       </c>
       <c r="BA214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BB214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>95000</v>
       </c>
       <c r="BC214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>312000</v>
       </c>
       <c r="BD214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>105300</v>
       </c>
       <c r="BE214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1124500</v>
       </c>
       <c r="BF214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>51900</v>
       </c>
       <c r="BG214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>80000</v>
       </c>
       <c r="BH214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BI214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BJ214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>45000</v>
       </c>
       <c r="BK214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>153000</v>
       </c>
       <c r="BL214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>42300</v>
       </c>
       <c r="BM214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1142000</v>
       </c>
       <c r="BN214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>58400</v>
       </c>
       <c r="BO214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>80000</v>
       </c>
       <c r="BP214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BQ214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BR214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>83000</v>
       </c>
       <c r="BS214" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>314000</v>
       </c>
       <c r="BT214" s="146">
-        <f t="shared" ref="BT214:CY214" si="2">SUBTOTAL(109,BT3:BT212)</f>
+        <f t="shared" ref="BT214:CY214" si="10">SUBTOTAL(109,BT3:BT212)</f>
         <v>74300</v>
       </c>
       <c r="BU214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1153700</v>
       </c>
       <c r="BV214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>56800</v>
       </c>
       <c r="BW214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>80000</v>
       </c>
       <c r="BX214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>3000</v>
       </c>
       <c r="BY214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4000</v>
       </c>
       <c r="BZ214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>39000</v>
       </c>
       <c r="CA214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>171500</v>
       </c>
       <c r="CB214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>38300</v>
       </c>
       <c r="CC214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1170700</v>
       </c>
       <c r="CD214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>49900</v>
       </c>
       <c r="CE214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>80000</v>
       </c>
       <c r="CF214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>3000</v>
       </c>
       <c r="CG214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4000</v>
       </c>
       <c r="CH214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>83000</v>
       </c>
       <c r="CI214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>302000</v>
       </c>
       <c r="CJ214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>70300</v>
       </c>
       <c r="CK214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1205300</v>
       </c>
       <c r="CL214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>54900</v>
       </c>
       <c r="CM214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>89000</v>
       </c>
       <c r="CN214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>7000</v>
       </c>
       <c r="CO214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="CP214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>45000</v>
       </c>
       <c r="CQ214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>154300</v>
       </c>
       <c r="CR214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>38300</v>
       </c>
       <c r="CS214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1239800</v>
       </c>
       <c r="CT214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>49900</v>
       </c>
       <c r="CU214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>89000</v>
       </c>
       <c r="CV214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>7000</v>
       </c>
       <c r="CW214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="CX214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>86000</v>
       </c>
       <c r="CY214" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>328000</v>
       </c>
       <c r="CZ214" s="146">
-        <f t="shared" ref="CZ214:DC214" si="3">SUBTOTAL(109,CZ3:CZ212)</f>
+        <f t="shared" ref="CZ214:DC214" si="11">SUBTOTAL(109,CZ3:CZ212)</f>
         <v>66300</v>
       </c>
       <c r="DA214" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>19654500</v>
       </c>
       <c r="DB214" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="DC214" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>42200</v>
       </c>
       <c r="DD214" s="36"/>
@@ -49319,7 +49319,7 @@
         <v>0</v>
       </c>
       <c r="V215" s="172" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="DG215" t="s">
         <v>0</v>
@@ -49330,7 +49330,7 @@
         <v>0</v>
       </c>
       <c r="J216" s="405" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="S216" t="s">
         <v>0</v>
